--- a/non_youtube_urls.xlsx
+++ b/non_youtube_urls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="340">
   <si>
     <t>Link-1</t>
   </si>
@@ -22,6 +22,12 @@
     <t>urls</t>
   </si>
   <si>
+    <t>text-content</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
     <t xml:space="preserve"> ['http://stepmom.uno/']</t>
   </si>
   <si>
@@ -911,6 +917,705 @@
   </si>
   <si>
     <t>http://kimoci.online/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+100% Free Dating Site
+WARNING!
+You will see nude photos/videos. Please be discreet.
+&gt;CONTINUE_x000D_
+&lt;
+459K Comments Member Register:
+Carol Baynes
+Great for privacy. Your photo and tagline are only displayed for an hour at a time, which also means youâd better move fast.
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        663 Â·_x000D_
+                                        5 mins ago
+Carmenza Duran Pena
+You donât need Facebook to log in to this one and can choose a nickname. Itâs very specific gender and kink-wise, so the potential is there to find your perfect partner. However, the free service is limited and full use is a costly Â£14.99/Â£7.50 a month, monthly/annually. I guess the question is, how much you value your kink?
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        300 Â·_x000D_
+                                        7 mins ago
+Lili Ramos
+I'm all ready. Thank....Thanks
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        471 Â·_x000D_
+                                        30 mins ago
+Sahra Tulaz
+Greattttt,,,,,just register, I get find a soul mate here....Thnk
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        539 Â·_x000D_
+                                        43 mins ago
+Mari Odaka
+god blessssss you..Love this site
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        633 Â·_x000D_
+                                        47 mins ago
+Mary Tait
+I'm looking for a love. !!!
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        768 Â·_x000D_
+                                        54 mins ago
+Tobias Tollbom
+I tried to get in to meet someone nice I didn't think! Or maybe someone hasn't come yet! I feel difficulties
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        246 Â·_x000D_
+                                        56 mins ago
+King Ho
+Looking for marriage seriously !! 
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        808 Â·_x000D_
+                                        1 hrs ago
+Shiran Huber
+Great..I love U ! 
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        506 Â·_x000D_
+                                        1 hrs ago
+Melissa Cameron
+I tried the site, and I found a soul mate near me 
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        993 Â·_x000D_
+                                        2 hrs ago
+Hytham Behiry
+I love this site !!!!!!!
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        632 Â·_x000D_
+                                        2 hrs ago
+Brian Hutchison
+I mean, I'll sign up right away. I'm real
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        712 Â·_x000D_
+                                        2 hrs ago
+Danielle Cossack-Barbieri
+Is there any way to hide my profile from people who live outside the US? As an A-list member, I've noticed that the majority of my likes are from women in Europe and Asia. !!
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        645 Â·_x000D_
+                                        3 hrs ago
+Paige Hubbs
+Cute, but I'd love to see more diverse representations of "dating success" beyond het white marriage. Last Feb was the same story with Eric and Jenn.
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        223 Â·_x000D_
+                                        4 hrs ago
+ Facebook Comments Plugin
+ LEAVE COMMENT
+Copyright Â© 2020 | Award Certificate | Trusted Event | tindersexplus  
+Contact Us
+Contact Us 
+Name
+Email
+Message
+Submit
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+100% Free Dating Site
+WARNING!
+You will see nude photos/videos. Please be discreet.
+&gt;CONTINUE_x000D_
+&lt;
+459K Comments Member Register:
+Carol Baynes
+Great for privacy. Your photo and tagline are only displayed for an hour at a time, which also means youâd better move fast.
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        663 Â·_x000D_
+                                        5 mins ago
+Carmenza Duran Pena
+You donât need Facebook to log in to this one and can choose a nickname. Itâs very specific gender and kink-wise, so the potential is there to find your perfect partner. However, the free service is limited and full use is a costly Â£14.99/Â£7.50 a month, monthly/annually. I guess the question is, how much you value your kink?
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        300 Â·_x000D_
+                                        7 mins ago
+Lili Ramos
+I'm all ready. Thank....Thanks
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        471 Â·_x000D_
+                                        30 mins ago
+Sahra Tulaz
+Greattttt,,,,,just register, I get find a soul mate here....Thnk
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        539 Â·_x000D_
+                                        43 mins ago
+Mari Odaka
+god blessssss you..Love this site
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        633 Â·_x000D_
+                                        47 mins ago
+Mary Tait
+I'm looking for a love. !!!
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        768 Â·_x000D_
+                                        54 mins ago
+Tobias Tollbom
+I tried to get in to meet someone nice I didn't think! Or maybe someone hasn't come yet! I feel difficulties
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        246 Â·_x000D_
+                                        56 mins ago
+King Ho
+Looking for marriage seriously !! 
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        808 Â·_x000D_
+                                        1 hrs ago
+Shiran Huber
+Great..I love U ! 
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        506 Â·_x000D_
+                                        1 hrs ago
+Melissa Cameron
+I tried the site, and I found a soul mate near me 
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        993 Â·_x000D_
+                                        2 hrs ago
+Hytham Behiry
+I love this site !!!!!!!
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        632 Â·_x000D_
+                                        2 hrs ago
+Brian Hutchison
+I mean, I'll sign up right away. I'm real
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        712 Â·_x000D_
+                                        2 hrs ago
+Danielle Cossack-Barbieri
+Is there any way to hide my profile from people who live outside the US? As an A-list member, I've noticed that the majority of my likes are from women in Europe and Asia. !!
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        645 Â·_x000D_
+                                        3 hrs ago
+Paige Hubbs
+Cute, but I'd love to see more diverse representations of "dating success" beyond het white marriage. Last Feb was the same story with Eric and Jenn.
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        223 Â·_x000D_
+                                        4 hrs ago
+ Facebook Comments Plugin
+ LEAVE COMMENT
+Copyright Â© 2020 | Award Certificate | Trusted Event | tindersexplus  
+Contact Us
+Contact Us 
+Name
+Email
+Message
+Submit
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Please Wait 
+You Are Automatic Redirecting
+To Secure Page
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+It's better than Sinder!
+_x000D_
+					04:59_x000D_
+It's better than Sinder!
+Are you looking for a men or a women?
+Men
+Women
+What's your gender?
+Men
+Women
+Are you older than 18 years?
+Yes
+No
+Do you agree to use a condom when having sex with a partner you meet on our site?
+Yes
+No
+You may now see our list and photos of women who are in your area. Again, please keep their identity a secret.
+Continue
+Unsubscribe
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Sexy Girl – Sexy Girl
+REGISTER
+FIND YOUR SOULMATE TODAY 
+Get Your Perfect Match in Your Area 
+SEE YOUR MATCHES
+Facebook-f
+Twitter
+Instagram
+Pinterest
+Google-plus-g
+GET-MOVIES.CLUB Â© 2021 All Rights Reserved 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Video Porn – Only 18+
+REGISTER
+FIND YOUR SOULMATE TODAY 
+Get Your Perfect Match in Your Area 
+CONTINUE
+Facebook-f
+Twitter
+Instagram
+Pinterest
+Google-plus-g
+GET-MOVIES.CLUB Â© 2021 All Rights Reserved 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The most popular dating site of this monthunsubscribeadult onlyreport abuseGirls nearby Warning!Warning!You will see nude photos. Please be discreet.Continue question 1question 1Many of these women are desperate single moms and cheating wives looking for some fun. They could be your neighbors or someone you know. Do you agree to keep the identity of these women a secret?noyes question 2question 2Many of these women are desperate single moms and cheating wives looking for some fun. They could be your neighbors or someone you know. Do you agree to keep the identity of these women a secret?noyes question 3question 3Many of these women are desperate single moms and cheating wives looking for some fun. They could be your neighbors or someone you know. Do you agree to keep the identity of these women a secret?noyesthank you!thank you!You may now see our list and photos of women who are in your area. Again, please keep their identity a secret. Click on the "CONTINUE" button and search on the basis of your answers.Continue
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+resete.uno
+This domain was recently registered at Namecheap.com. Please check back later!
+resete.uno
+2022 Copyright.  All Rights Reserved.
+Privacy Policy
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Please Wait 
+You Are Automatic Redirecting
+To Secure Page
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+sexxo.uno
+This domain was recently registered at Namecheap.com. Please check back later!
+sexxo.uno
+2022 Copyright.  All Rights Reserved.
+Privacy Policy
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Best dating worldwide &lt;3
+WARNING!
+You will see nude photos of horny MILFs and Moms. Please be discreet.
+OK
+YOU MUST FOLLOW THE RULES GIVEN BELOW
+☝ If you see someone you know, DO NOT publicize it. Do not spread rumors.
+☝ When having sex with one of our members, it is your responsibility to protect yourself against STDs.
+☝ Respect sexual desires of other members. Our members are normal men and women, not pornstars or prostitutes.
+I AGREE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+100% Free Dating Site
+WARNING!
+You will see nude photos/videos. Please be discreet.
+&gt;CONTINUE_x000D_
+&lt;
+459K Comments Member Register:
+Carol Baynes
+Great for privacy. Your photo and tagline are only displayed for an hour at a time, which also means youâd better move fast.
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        663 Â·_x000D_
+                                        5 mins ago
+Carmenza Duran Pena
+You donât need Facebook to log in to this one and can choose a nickname. Itâs very specific gender and kink-wise, so the potential is there to find your perfect partner. However, the free service is limited and full use is a costly Â£14.99/Â£7.50 a month, monthly/annually. I guess the question is, how much you value your kink?
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        300 Â·_x000D_
+                                        7 mins ago
+Lili Ramos
+I'm all ready. Thank....Thanks
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        471 Â·_x000D_
+                                        30 mins ago
+Sahra Tulaz
+Greattttt,,,,,just register, I get find a soul mate here....Thnk
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        539 Â·_x000D_
+                                        43 mins ago
+Mari Odaka
+god blessssss you..Love this site
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        633 Â·_x000D_
+                                        47 mins ago
+Mary Tait
+I'm looking for a love. !!!
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        768 Â·_x000D_
+                                        54 mins ago
+Tobias Tollbom
+I tried to get in to meet someone nice I didn't think! Or maybe someone hasn't come yet! I feel difficulties
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        246 Â·_x000D_
+                                        56 mins ago
+King Ho
+Looking for marriage seriously !! 
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        808 Â·_x000D_
+                                        1 hrs ago
+Shiran Huber
+Great..I love U ! 
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        506 Â·_x000D_
+                                        1 hrs ago
+Melissa Cameron
+I tried the site, and I found a soul mate near me 
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        993 Â·_x000D_
+                                        2 hrs ago
+Hytham Behiry
+I love this site !!!!!!!
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        632 Â·_x000D_
+                                        2 hrs ago
+Brian Hutchison
+I mean, I'll sign up right away. I'm real
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        712 Â·_x000D_
+                                        2 hrs ago
+Danielle Cossack-Barbieri
+Is there any way to hide my profile from people who live outside the US? As an A-list member, I've noticed that the majority of my likes are from women in Europe and Asia. !!
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        645 Â·_x000D_
+                                        3 hrs ago
+Paige Hubbs
+Cute, but I'd love to see more diverse representations of "dating success" beyond het white marriage. Last Feb was the same story with Eric and Jenn.
+Like Â·_x000D_
+                                        Reply Â·_x000D_
+_x000D_
+                                        223 Â·_x000D_
+                                        4 hrs ago
+ Facebook Comments Plugin
+ LEAVE COMMENT
+Copyright Â© 2020 | Award Certificate | Trusted Event | tindersexplus  
+Contact Us
+Contact Us 
+Name
+Email
+Message
+Submit
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+makinglove.uno
+This domain was recently registered at Namecheap.com. Please check back later!
+makinglove.uno
+2022 Copyright.  All Rights Reserved.
+Privacy Policy
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Sexy Girl – Sexy Girl
+REGISTER
+FIND YOUR SOULMATE TODAY 
+Get Your Perfect Match in Your Area 
+SEE YOUR MATCHES
+Facebook-f
+Twitter
+Instagram
+Pinterest
+Google-plus-g
+GET-MOVIES.CLUB Â© 2021 All Rights Reserved 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The most popular dating site of this monthunsubscribeadult onlyreport abuseWarning!Before we can show you a list and photos of women who live near you and are ready to have sex right now, we need to ask a few quick questions.Continuequestion 1Many of these women are desperate single moms and cheating wives looking for some fun. They could be your neighbors or someone you know. Do you agree to keep the identity of these women a secret?noyesquestion 2These women have asked us to not allow men that are seeking a "relationship". They only desire quick sex. Not dating. Do you agree to this request?noyesquestion 3Are you at least 18 years old? The women have requested that we not let those younger than 18 contact them because of past rude behavior by younger men.noyesthank you!You may now see our list and photos of women who are in your area. Again, please keep their identity a secret. Click on the "CONTINUE" button and search on the basis of your answers.Continue
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The most popular dating site of this monthunsubscribeadult onlyreport abuseGirls nearby:  Warning!Before we can show you a list and photos of women who live near you and are ready to have sex right now, we need to ask a few quick questions.Continuequestion 1Many of these women are desperate single moms and cheating wives looking for some fun. They could be your neighbors or someone you know. Do you agree to keep the identity of these women a secret?noyesquestion 2These women have asked us to not allow men that are seeking a "relationship". They only desire quick sex. Not dating. Do you agree to this request?noyesquestion 3Are you at least 18 years old? The women have requested that we not let those younger than 18 contact them because of past rude behavior by younger men.noyesthank you!You may now see our list and photos of women who are in your area. Again, please keep their identity a secret. Click on the "CONTINUE" button and search on the basis of your answers.Continue
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Sexy Girl – Sexy Girl
+REGISTER
+FIND YOUR SOULMATE TODAY 
+Get Your Perfect Match in Your Area 
+SEE YOUR MATCHES
+Facebook-f
+Twitter
+Instagram
+Pinterest
+Google-plus-g
+GET-MOVIES.CLUB Â© 2021 All Rights Reserved 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+toples.uno
+This domain was recently registered at Namecheap.com. Please check back later!
+toples.uno
+2022 Copyright.  All Rights Reserved.
+Privacy Policy
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+starmovies.uno
+This domain was recently registered at Namecheap.com. Please check back later!
+starmovies.uno
+2022 Copyright.  All Rights Reserved.
+Privacy Policy
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+girlforyou.uno
+This domain was recently registered at Namecheap.com. Please check back later!
+girlforyou.uno
+2022 Copyright.  All Rights Reserved.
+Privacy Policy
+</t>
+  </si>
+  <si>
+    <t>Twitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 404 Not Found_x000D_
+404
+Not Found
+The resource requested could not be found on this server!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 404 Not Found_x000D_
+404
+Not Found_x000D_
+The resource requested could not be found on this server!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Age verification
+18+ ?
+NO
+YES
+</t>
+  </si>
+  <si>
+    <t>YouTubeAboutPressCopyrightContact usCreatorsAdvertiseDevelopersTermsPrivacyPolicy &amp; SafetyHow YouTube worksTest new features© 2022 Google LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Only 18+ – Sexy Nude Girls
+Hi! I’m Squirty 
+Let’s build your unique dating experience! 
+START
+By clicking on START you confirm you’re over 18 
+FLIRT &amp; CHAT 
+Naughty chat with girls at your service 
+PLAY &amp; CONTROL 
+Get your perfect match in your area 
+PRIVATE SHOW 
+Go Private with the model 
+Facebook-f
+Twitter
+Instagram
+Pinterest
+Google-plus-g
+GET-MOVIES.CLUB Â© 2021 All Rights Reserved 
+</t>
+  </si>
+  <si>
+    <t>Link not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Apache HTTP Server Test Page powered by CentOS
+Testing 123..
+This page is used to test the proper operation of the Apache HTTP server after it has been installed. If you can read this page it means that this site is working properly. This server is powered by CentOS.
+Just visiting?
+The website you just visited is either experiencing problems or is undergoing routine maintenance.
+If you would like to let the administrators of this website know that you've seen this page instead of the page you expected, you should send them e-mail. In general, mail sent to the name "webmaster" and directed to the website's domain should reach the appropriate person.
+For example, if you experienced problems while visiting www.example.com, you should send e-mail to "webmaster@example.com".
+Are you the Administrator?
+You should add your website content to the directory /var/www/html/.
+To prevent this page from ever being used, follow the instructions in the file /etc/httpd/conf.d/welcome.conf.
+Promoting Apache and CentOS
+You are free to use the images below on Apache and CentOS Linux powered HTTP servers.  Thanks for using Apache and CentOS!
+Important note:
+The CentOS Project has nothing to do with this website or its content,
+            it just provides the software that makes the website run.
+If you have issues with the content of this site, contact the owner of the domain, not the CentOS project. 
+            Unless you intended to visit CentOS.org, the CentOS Project does not have anything to do with this website,
+            the content or the lack of it.
+For example, if this website is www.example.com, you would find the owner of the example.com domain at the following WHOIS server:
+http://www.internic.net/whois.html
+The CentOS Project
+The CentOS Linux distribution is a stable, predictable, manageable and reproduceable platform derived from 
+               the sources of Red Hat Enterprise Linux (RHEL).
+Additionally to being a popular choice for web hosting, CentOS also provides a rich platform for open source communities to build upon. For more information
+               please visit the CentOS website.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+sweetgirls.uno
+This domain was recently registered at Namecheap.com. Please check back later!
+sweetgirls.uno
+2022 Copyright.  All Rights Reserved.
+Privacy Policy
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+   | olivia
+Cancel
+Update
+Cart (0)
+Buy Now
+Continue Shopping
+Promo Code
+Cancel
+Apply
+@olivia
+                大人向けの最新コンテンツ 17年以上のみ
+                  VIEW CONTINUE
+made with
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Sexy Girl – Sexy Girl
+REGISTER
+FIND YOUR SOULMATE TODAY 
+Get Your Perfect Match in Your Area 
+SEE YOUR MATCHES
+Facebook-f
+Twitter
+Instagram
+Pinterest
+Google-plus-g
+GET-MOVIES.CLUB Â© 2020 All Rights Reserved 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+REZEKI
+Beranda
+Langganan:
+Postingan (Atom)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Now Loading
+Now Loading
+</t>
+  </si>
+  <si>
+    <t>This link is unavailable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+dulkaclep-jk
+Beranda
+Langganan:
+Postingan (Atom)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+NEWSONYEJIN
+Beranda
+Langganan:
+Postingan (Atom)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The most popular dating site of this monthadult onlyreport abuseGirls nearby:  Warning!Before we can show you a list and photos of women who live near you and are ready to have sex right now, we need to ask a few quick questions.Continuequestion 1Many of these women are desperate single moms and cheating wives looking for some fun. They could be your neighbors or someone you know. Do you agree to keep the identity of these women a secret?noyesquestion 2These women have asked us to not allow men that are seeking a "relationship". They only desire quick sex. Not dating. Do you agree to this request?noyesquestion 3Are you at least 18 years old? The women have requested that we not let those younger than 18 contact them because of past rude behavior by younger men.noyesthank you!You may now see our list and photos of women who are in your area. Again, please keep their identity a secret. Click on the "CONTINUE" button and search on the basis of your answers.Continue
+</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -1281,3835 +1986,5704 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C348"/>
+  <dimension ref="A1:E348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>169</v>
+      </c>
+      <c r="D3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>170</v>
+      </c>
+      <c r="D5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>171</v>
+      </c>
+      <c r="E6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>171</v>
+      </c>
+      <c r="E7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>171</v>
+      </c>
+      <c r="E8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>172</v>
+      </c>
+      <c r="D9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>173</v>
+      </c>
+      <c r="D10" t="s">
+        <v>302</v>
+      </c>
+      <c r="E10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>174</v>
+      </c>
+      <c r="D11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>175</v>
+      </c>
+      <c r="D12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>176</v>
+      </c>
+      <c r="D13" t="s">
+        <v>302</v>
+      </c>
+      <c r="E13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>177</v>
+      </c>
+      <c r="D14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>177</v>
+      </c>
+      <c r="D15" t="s">
+        <v>303</v>
+      </c>
+      <c r="E15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>177</v>
+      </c>
+      <c r="D16" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>177</v>
+      </c>
+      <c r="D17" t="s">
+        <v>303</v>
+      </c>
+      <c r="E17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>178</v>
+      </c>
+      <c r="D18" t="s">
+        <v>302</v>
+      </c>
+      <c r="E18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>179</v>
+      </c>
+      <c r="D19" t="s">
+        <v>305</v>
+      </c>
+      <c r="E19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>180</v>
+      </c>
+      <c r="D20" t="s">
+        <v>305</v>
+      </c>
+      <c r="E20" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>181</v>
+      </c>
+      <c r="D21" t="s">
+        <v>302</v>
+      </c>
+      <c r="E21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>182</v>
+      </c>
+      <c r="D22" t="s">
+        <v>306</v>
+      </c>
+      <c r="E22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>183</v>
+      </c>
+      <c r="D23" t="s">
+        <v>302</v>
+      </c>
+      <c r="E23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>184</v>
+      </c>
+      <c r="D24" t="s">
+        <v>302</v>
+      </c>
+      <c r="E24" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>185</v>
+      </c>
+      <c r="D25" t="s">
+        <v>302</v>
+      </c>
+      <c r="E25" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>186</v>
+      </c>
+      <c r="D26" t="s">
+        <v>302</v>
+      </c>
+      <c r="E26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>187</v>
+      </c>
+      <c r="D27" t="s">
+        <v>302</v>
+      </c>
+      <c r="E27" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>184</v>
+      </c>
+      <c r="D28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E28" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>188</v>
+      </c>
+      <c r="D29" t="s">
+        <v>302</v>
+      </c>
+      <c r="E29" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>189</v>
+      </c>
+      <c r="D30" t="s">
+        <v>307</v>
+      </c>
+      <c r="E30" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>190</v>
+      </c>
+      <c r="E31" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>191</v>
+      </c>
+      <c r="D32" t="s">
+        <v>308</v>
+      </c>
+      <c r="E32" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>113</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>192</v>
+      </c>
+      <c r="D33" t="s">
+        <v>302</v>
+      </c>
+      <c r="E33" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>184</v>
+      </c>
+      <c r="D34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E34" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>115</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>193</v>
+      </c>
+      <c r="D35" t="s">
+        <v>309</v>
+      </c>
+      <c r="E35" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>116</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>193</v>
+      </c>
+      <c r="D36" t="s">
+        <v>309</v>
+      </c>
+      <c r="E36" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>117</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>194</v>
+      </c>
+      <c r="D37" t="s">
+        <v>305</v>
+      </c>
+      <c r="E37" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>195</v>
+      </c>
+      <c r="D38" t="s">
+        <v>310</v>
+      </c>
+      <c r="E38" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>196</v>
+      </c>
+      <c r="D39" t="s">
+        <v>306</v>
+      </c>
+      <c r="E39" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>192</v>
+      </c>
+      <c r="D40" t="s">
+        <v>302</v>
+      </c>
+      <c r="E40" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>197</v>
+      </c>
+      <c r="E41" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>122</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>198</v>
+      </c>
+      <c r="E42" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>148</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>185</v>
+      </c>
+      <c r="D43" t="s">
+        <v>302</v>
+      </c>
+      <c r="E43" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>154</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>199</v>
+      </c>
+      <c r="D44" t="s">
+        <v>311</v>
+      </c>
+      <c r="E44" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>161</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>175</v>
+      </c>
+      <c r="D45" t="s">
+        <v>302</v>
+      </c>
+      <c r="E45" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>162</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>200</v>
+      </c>
+      <c r="D46" t="s">
+        <v>302</v>
+      </c>
+      <c r="E46" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>163</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>176</v>
+      </c>
+      <c r="D47" t="s">
+        <v>302</v>
+      </c>
+      <c r="E47" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>164</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>175</v>
+      </c>
+      <c r="D48" t="s">
+        <v>302</v>
+      </c>
+      <c r="E48" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>165</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>201</v>
+      </c>
+      <c r="D49" t="s">
+        <v>302</v>
+      </c>
+      <c r="E49" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>166</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>202</v>
+      </c>
+      <c r="D50" t="s">
+        <v>312</v>
+      </c>
+      <c r="E50" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>167</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>203</v>
+      </c>
+      <c r="E51" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>199</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>195</v>
+      </c>
+      <c r="D52" t="s">
+        <v>310</v>
+      </c>
+      <c r="E52" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>206</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>204</v>
+      </c>
+      <c r="D53" t="s">
+        <v>302</v>
+      </c>
+      <c r="E53" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>231</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>205</v>
+      </c>
+      <c r="D54" t="s">
+        <v>302</v>
+      </c>
+      <c r="E54" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>256</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>181</v>
+      </c>
+      <c r="D55" t="s">
+        <v>302</v>
+      </c>
+      <c r="E55" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>257</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>206</v>
+      </c>
+      <c r="D56" t="s">
+        <v>313</v>
+      </c>
+      <c r="E56" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>289</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>207</v>
+      </c>
+      <c r="D57" t="s">
+        <v>314</v>
+      </c>
+      <c r="E57" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>300</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>208</v>
+      </c>
+      <c r="E58" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>301</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>208</v>
+      </c>
+      <c r="E59" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>315</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>209</v>
+      </c>
+      <c r="D60" t="s">
+        <v>315</v>
+      </c>
+      <c r="E60" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>316</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>209</v>
+      </c>
+      <c r="D61" t="s">
+        <v>316</v>
+      </c>
+      <c r="E61" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>341</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>175</v>
+      </c>
+      <c r="D62" t="s">
+        <v>302</v>
+      </c>
+      <c r="E62" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>342</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>210</v>
+      </c>
+      <c r="D63" t="s">
+        <v>303</v>
+      </c>
+      <c r="E63" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>343</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>211</v>
+      </c>
+      <c r="E64" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>368</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>204</v>
+      </c>
+      <c r="D65" t="s">
+        <v>302</v>
+      </c>
+      <c r="E65" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>393</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>212</v>
+      </c>
+      <c r="E66" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>395</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>213</v>
+      </c>
+      <c r="D67" t="s">
+        <v>303</v>
+      </c>
+      <c r="E67" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>396</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>214</v>
+      </c>
+      <c r="D68" t="s">
+        <v>303</v>
+      </c>
+      <c r="E68" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>422</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>213</v>
+      </c>
+      <c r="D69" t="s">
+        <v>303</v>
+      </c>
+      <c r="E69" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>423</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>214</v>
+      </c>
+      <c r="D70" t="s">
+        <v>303</v>
+      </c>
+      <c r="E70" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>451</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>191</v>
+      </c>
+      <c r="D71" t="s">
+        <v>308</v>
+      </c>
+      <c r="E71" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
         <v>477</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>215</v>
+      </c>
+      <c r="E72" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>478</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>216</v>
+      </c>
+      <c r="D73" t="s">
+        <v>302</v>
+      </c>
+      <c r="E73" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>504</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>217</v>
+      </c>
+      <c r="D74" t="s">
+        <v>303</v>
+      </c>
+      <c r="E74" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>529</v>
       </c>
       <c r="B75" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>217</v>
+      </c>
+      <c r="D75" t="s">
+        <v>303</v>
+      </c>
+      <c r="E75" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
         <v>554</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>217</v>
+      </c>
+      <c r="D76" t="s">
+        <v>303</v>
+      </c>
+      <c r="E76" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>580</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>218</v>
+      </c>
+      <c r="D77" t="s">
+        <v>302</v>
+      </c>
+      <c r="E77" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>587</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>219</v>
+      </c>
+      <c r="D78" t="s">
+        <v>302</v>
+      </c>
+      <c r="E78" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="1">
         <v>595</v>
       </c>
       <c r="B79" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>220</v>
+      </c>
+      <c r="D79" t="s">
+        <v>317</v>
+      </c>
+      <c r="E79" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="1">
         <v>597</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>186</v>
+      </c>
+      <c r="D80" t="s">
+        <v>302</v>
+      </c>
+      <c r="E80" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="1">
         <v>623</v>
       </c>
       <c r="B81" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>221</v>
+      </c>
+      <c r="D81" t="s">
+        <v>318</v>
+      </c>
+      <c r="E81" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="1">
         <v>637</v>
       </c>
       <c r="B82" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>204</v>
+      </c>
+      <c r="D82" t="s">
+        <v>302</v>
+      </c>
+      <c r="E82" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="1">
         <v>639</v>
       </c>
       <c r="B83" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>222</v>
+      </c>
+      <c r="E83" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="1">
         <v>640</v>
       </c>
       <c r="B84" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C84" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>223</v>
+      </c>
+      <c r="E84" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="1">
         <v>656</v>
       </c>
       <c r="B85" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>222</v>
+      </c>
+      <c r="E85" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="1">
         <v>657</v>
       </c>
       <c r="B86" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C86" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>223</v>
+      </c>
+      <c r="E86" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="1">
         <v>673</v>
       </c>
       <c r="B87" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>224</v>
+      </c>
+      <c r="E87" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="1">
         <v>674</v>
       </c>
       <c r="B88" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C88" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>225</v>
+      </c>
+      <c r="E88" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="1">
         <v>690</v>
       </c>
       <c r="B89" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>224</v>
+      </c>
+      <c r="E89" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="1">
         <v>691</v>
       </c>
       <c r="B90" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C90" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>225</v>
+      </c>
+      <c r="E90" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="1">
         <v>707</v>
       </c>
       <c r="B91" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>224</v>
+      </c>
+      <c r="E91" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="1">
         <v>708</v>
       </c>
       <c r="B92" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C92" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>225</v>
+      </c>
+      <c r="E92" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="1">
         <v>724</v>
       </c>
       <c r="B93" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>224</v>
+      </c>
+      <c r="E93" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="1">
         <v>725</v>
       </c>
       <c r="B94" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C94" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>225</v>
+      </c>
+      <c r="E94" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="1">
         <v>741</v>
       </c>
       <c r="B95" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>224</v>
+      </c>
+      <c r="E95" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="1">
         <v>742</v>
       </c>
       <c r="B96" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C96" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>225</v>
+      </c>
+      <c r="E96" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="1">
         <v>758</v>
       </c>
       <c r="B97" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>226</v>
+      </c>
+      <c r="D97" t="s">
+        <v>319</v>
+      </c>
+      <c r="E97" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="1">
         <v>759</v>
       </c>
       <c r="B98" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>169</v>
+      </c>
+      <c r="D98" t="s">
+        <v>302</v>
+      </c>
+      <c r="E98" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="1">
         <v>791</v>
       </c>
       <c r="B99" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>227</v>
+      </c>
+      <c r="D99" t="s">
+        <v>319</v>
+      </c>
+      <c r="E99" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="1">
         <v>792</v>
       </c>
       <c r="B100" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C100" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>228</v>
+      </c>
+      <c r="E100" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="1">
         <v>808</v>
       </c>
       <c r="B101" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>227</v>
+      </c>
+      <c r="D101" t="s">
+        <v>319</v>
+      </c>
+      <c r="E101" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="1">
         <v>809</v>
       </c>
       <c r="B102" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C102" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>228</v>
+      </c>
+      <c r="E102" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="1">
         <v>825</v>
       </c>
       <c r="B103" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>227</v>
+      </c>
+      <c r="D103" t="s">
+        <v>319</v>
+      </c>
+      <c r="E103" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="1">
         <v>826</v>
       </c>
       <c r="B104" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C104" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>228</v>
+      </c>
+      <c r="E104" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="1">
         <v>842</v>
       </c>
       <c r="B105" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>227</v>
+      </c>
+      <c r="D105" t="s">
+        <v>319</v>
+      </c>
+      <c r="E105" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="1">
         <v>843</v>
       </c>
       <c r="B106" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C106" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>228</v>
+      </c>
+      <c r="E106" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="1">
         <v>859</v>
       </c>
       <c r="B107" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>227</v>
+      </c>
+      <c r="D107" t="s">
+        <v>319</v>
+      </c>
+      <c r="E107" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="1">
         <v>860</v>
       </c>
       <c r="B108" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C108" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>228</v>
+      </c>
+      <c r="E108" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="1">
         <v>876</v>
       </c>
       <c r="B109" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>227</v>
+      </c>
+      <c r="D109" t="s">
+        <v>319</v>
+      </c>
+      <c r="E109" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="1">
         <v>877</v>
       </c>
       <c r="B110" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C110" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>228</v>
+      </c>
+      <c r="E110" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="1">
         <v>893</v>
       </c>
       <c r="B111" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>227</v>
+      </c>
+      <c r="D111" t="s">
+        <v>319</v>
+      </c>
+      <c r="E111" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="1">
         <v>894</v>
       </c>
       <c r="B112" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C112" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>228</v>
+      </c>
+      <c r="E112" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="1">
         <v>913</v>
       </c>
       <c r="B113" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>229</v>
+      </c>
+      <c r="E113" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="1">
         <v>915</v>
       </c>
       <c r="B114" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>230</v>
+      </c>
+      <c r="E114" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="1">
         <v>917</v>
       </c>
       <c r="B115" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>200</v>
+      </c>
+      <c r="D115" t="s">
+        <v>302</v>
+      </c>
+      <c r="E115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="1">
         <v>953</v>
       </c>
       <c r="B116" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>231</v>
+      </c>
+      <c r="D116" t="s">
+        <v>306</v>
+      </c>
+      <c r="E116" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="1">
         <v>962</v>
       </c>
       <c r="B117" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>219</v>
+      </c>
+      <c r="D117" t="s">
+        <v>302</v>
+      </c>
+      <c r="E117" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="1">
         <v>969</v>
       </c>
       <c r="B118" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>232</v>
+      </c>
+      <c r="E118" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="1">
         <v>971</v>
       </c>
       <c r="B119" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>233</v>
+      </c>
+      <c r="E119" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="1">
         <v>972</v>
       </c>
       <c r="B120" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>234</v>
+      </c>
+      <c r="D120" t="s">
+        <v>320</v>
+      </c>
+      <c r="E120" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="1">
         <v>979</v>
       </c>
       <c r="B121" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>235</v>
+      </c>
+      <c r="D121" t="s">
+        <v>321</v>
+      </c>
+      <c r="E121" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="1">
         <v>1008</v>
       </c>
       <c r="B122" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>194</v>
+      </c>
+      <c r="D122" t="s">
+        <v>305</v>
+      </c>
+      <c r="E122" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="1">
         <v>1019</v>
       </c>
       <c r="B123" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>236</v>
+      </c>
+      <c r="D123" t="s">
+        <v>322</v>
+      </c>
+      <c r="E123" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="1">
         <v>1020</v>
       </c>
       <c r="B124" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>236</v>
+      </c>
+      <c r="D124" t="s">
+        <v>322</v>
+      </c>
+      <c r="E124" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="1">
         <v>1026</v>
       </c>
       <c r="B125" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>186</v>
+      </c>
+      <c r="D125" t="s">
+        <v>302</v>
+      </c>
+      <c r="E125" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="1">
         <v>1040</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>179</v>
+      </c>
+      <c r="D126" t="s">
+        <v>305</v>
+      </c>
+      <c r="E126" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="1">
         <v>1044</v>
       </c>
       <c r="B127" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>216</v>
+      </c>
+      <c r="D127" t="s">
+        <v>302</v>
+      </c>
+      <c r="E127" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="1">
         <v>1058</v>
       </c>
       <c r="B128" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>237</v>
+      </c>
+      <c r="D128" t="s">
+        <v>302</v>
+      </c>
+      <c r="E128" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="1">
         <v>1070</v>
       </c>
       <c r="B129" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>169</v>
+      </c>
+      <c r="D129" t="s">
+        <v>302</v>
+      </c>
+      <c r="E129" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" s="1">
         <v>1085</v>
       </c>
       <c r="B130" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>237</v>
+      </c>
+      <c r="D130" t="s">
+        <v>302</v>
+      </c>
+      <c r="E130" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="1">
         <v>1096</v>
       </c>
       <c r="B131" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>238</v>
+      </c>
+      <c r="E131" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="1">
         <v>1097</v>
       </c>
       <c r="B132" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>237</v>
+      </c>
+      <c r="D132" t="s">
+        <v>302</v>
+      </c>
+      <c r="E132" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="1">
         <v>1108</v>
       </c>
       <c r="B133" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>237</v>
+      </c>
+      <c r="D133" t="s">
+        <v>302</v>
+      </c>
+      <c r="E133" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" s="1">
         <v>1119</v>
       </c>
       <c r="B134" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>219</v>
+      </c>
+      <c r="D134" t="s">
+        <v>302</v>
+      </c>
+      <c r="E134" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="1">
         <v>1126</v>
       </c>
       <c r="B135" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>239</v>
+      </c>
+      <c r="D135" t="s">
+        <v>303</v>
+      </c>
+      <c r="E135" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="1">
         <v>1127</v>
       </c>
       <c r="B136" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>239</v>
+      </c>
+      <c r="D136" t="s">
+        <v>303</v>
+      </c>
+      <c r="E136" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" s="1">
         <v>1141</v>
       </c>
       <c r="B137" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>239</v>
+      </c>
+      <c r="D137" t="s">
+        <v>303</v>
+      </c>
+      <c r="E137" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="1">
         <v>1142</v>
       </c>
       <c r="B138" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>239</v>
+      </c>
+      <c r="D138" t="s">
+        <v>303</v>
+      </c>
+      <c r="E138" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="1">
         <v>1158</v>
       </c>
       <c r="B139" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D139" t="s">
+        <v>323</v>
+      </c>
+      <c r="E139" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="1">
         <v>1159</v>
       </c>
       <c r="B140" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D140" t="s">
+        <v>323</v>
+      </c>
+      <c r="E140" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="1">
         <v>1173</v>
       </c>
       <c r="B141" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>241</v>
+      </c>
+      <c r="D141" t="s">
+        <v>302</v>
+      </c>
+      <c r="E141" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="1">
         <v>1174</v>
       </c>
       <c r="B142" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>237</v>
+      </c>
+      <c r="D142" t="s">
+        <v>302</v>
+      </c>
+      <c r="E142" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="1">
         <v>1175</v>
       </c>
       <c r="B143" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>242</v>
+      </c>
+      <c r="D143" t="s">
+        <v>324</v>
+      </c>
+      <c r="E143" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" s="1">
         <v>1176</v>
       </c>
       <c r="B144" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>242</v>
+      </c>
+      <c r="D144" t="s">
+        <v>324</v>
+      </c>
+      <c r="E144" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" s="1">
         <v>1193</v>
       </c>
       <c r="B145" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>243</v>
+      </c>
+      <c r="D145" t="s">
+        <v>325</v>
+      </c>
+      <c r="E145" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="1">
         <v>1194</v>
       </c>
       <c r="B146" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>244</v>
+      </c>
+      <c r="D146" t="s">
+        <v>325</v>
+      </c>
+      <c r="E146" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" s="1">
         <v>1223</v>
       </c>
       <c r="B147" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>245</v>
+      </c>
+      <c r="D147" t="s">
+        <v>323</v>
+      </c>
+      <c r="E147" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" s="1">
         <v>1224</v>
       </c>
       <c r="B148" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>245</v>
+      </c>
+      <c r="D148" t="s">
+        <v>323</v>
+      </c>
+      <c r="E148" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="1">
         <v>1240</v>
       </c>
       <c r="B149" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>245</v>
+      </c>
+      <c r="D149" t="s">
+        <v>323</v>
+      </c>
+      <c r="E149" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="1">
         <v>1241</v>
       </c>
       <c r="B150" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>245</v>
+      </c>
+      <c r="D150" t="s">
+        <v>323</v>
+      </c>
+      <c r="E150" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" s="1">
         <v>1257</v>
       </c>
       <c r="B151" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>246</v>
+      </c>
+      <c r="E151" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" s="1">
         <v>1259</v>
       </c>
       <c r="B152" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>183</v>
+      </c>
+      <c r="D152" t="s">
+        <v>302</v>
+      </c>
+      <c r="E152" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" s="1">
         <v>1266</v>
       </c>
       <c r="B153" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>182</v>
+      </c>
+      <c r="D153" t="s">
+        <v>306</v>
+      </c>
+      <c r="E153" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" s="1">
         <v>1267</v>
       </c>
       <c r="B154" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>204</v>
+      </c>
+      <c r="D154" t="s">
+        <v>302</v>
+      </c>
+      <c r="E154" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" s="1">
         <v>1268</v>
       </c>
       <c r="B155" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>247</v>
+      </c>
+      <c r="D155" t="s">
+        <v>326</v>
+      </c>
+      <c r="E155" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" s="1">
         <v>1284</v>
       </c>
       <c r="B156" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>248</v>
+      </c>
+      <c r="D156" t="s">
+        <v>302</v>
+      </c>
+      <c r="E156" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" s="1">
         <v>1291</v>
       </c>
       <c r="B157" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>249</v>
+      </c>
+      <c r="D157" t="s">
+        <v>326</v>
+      </c>
+      <c r="E157" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" s="1">
         <v>1292</v>
       </c>
       <c r="B158" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>249</v>
+      </c>
+      <c r="D158" t="s">
+        <v>326</v>
+      </c>
+      <c r="E158" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" s="1">
         <v>1306</v>
       </c>
       <c r="B159" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>250</v>
+      </c>
+      <c r="D159" t="s">
+        <v>305</v>
+      </c>
+      <c r="E159" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="1">
         <v>1307</v>
       </c>
       <c r="B160" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>249</v>
+      </c>
+      <c r="D160" t="s">
+        <v>326</v>
+      </c>
+      <c r="E160" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" s="1">
         <v>1308</v>
       </c>
       <c r="B161" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>249</v>
+      </c>
+      <c r="D161" t="s">
+        <v>326</v>
+      </c>
+      <c r="E161" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" s="1">
         <v>1322</v>
       </c>
       <c r="B162" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>249</v>
+      </c>
+      <c r="D162" t="s">
+        <v>326</v>
+      </c>
+      <c r="E162" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" s="1">
         <v>1323</v>
       </c>
       <c r="B163" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>249</v>
+      </c>
+      <c r="D163" t="s">
+        <v>326</v>
+      </c>
+      <c r="E163" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="1">
         <v>1337</v>
       </c>
       <c r="B164" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>249</v>
+      </c>
+      <c r="D164" t="s">
+        <v>326</v>
+      </c>
+      <c r="E164" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="1">
         <v>1338</v>
       </c>
       <c r="B165" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>249</v>
+      </c>
+      <c r="D165" t="s">
+        <v>326</v>
+      </c>
+      <c r="E165" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" s="1">
         <v>1352</v>
       </c>
       <c r="B166" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>249</v>
+      </c>
+      <c r="D166" t="s">
+        <v>326</v>
+      </c>
+      <c r="E166" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" s="1">
         <v>1353</v>
       </c>
       <c r="B167" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>249</v>
+      </c>
+      <c r="D167" t="s">
+        <v>326</v>
+      </c>
+      <c r="E167" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="1">
         <v>1367</v>
       </c>
       <c r="B168" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>249</v>
+      </c>
+      <c r="D168" t="s">
+        <v>326</v>
+      </c>
+      <c r="E168" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" s="1">
         <v>1368</v>
       </c>
       <c r="B169" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>249</v>
+      </c>
+      <c r="D169" t="s">
+        <v>326</v>
+      </c>
+      <c r="E169" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="1">
         <v>1382</v>
       </c>
       <c r="B170" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>249</v>
+      </c>
+      <c r="D170" t="s">
+        <v>326</v>
+      </c>
+      <c r="E170" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" s="1">
         <v>1383</v>
       </c>
       <c r="B171" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <v>249</v>
+      </c>
+      <c r="D171" t="s">
+        <v>326</v>
+      </c>
+      <c r="E171" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" s="1">
         <v>1397</v>
       </c>
       <c r="B172" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>251</v>
+      </c>
+      <c r="D172" t="s">
+        <v>307</v>
+      </c>
+      <c r="E172" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" s="1">
         <v>1398</v>
       </c>
       <c r="B173" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>251</v>
+      </c>
+      <c r="D173" t="s">
+        <v>307</v>
+      </c>
+      <c r="E173" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" s="1">
         <v>1417</v>
       </c>
       <c r="B174" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>252</v>
+      </c>
+      <c r="D174" t="s">
+        <v>327</v>
+      </c>
+      <c r="E174" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" s="1">
         <v>1435</v>
       </c>
       <c r="B175" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>252</v>
+      </c>
+      <c r="D175" t="s">
+        <v>327</v>
+      </c>
+      <c r="E175" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="1">
         <v>1453</v>
       </c>
       <c r="B176" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>175</v>
+      </c>
+      <c r="D176" t="s">
+        <v>302</v>
+      </c>
+      <c r="E176" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" s="1">
         <v>1485</v>
       </c>
       <c r="B177" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>207</v>
+      </c>
+      <c r="D177" t="s">
+        <v>314</v>
+      </c>
+      <c r="E177" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" s="1">
         <v>1496</v>
       </c>
       <c r="B178" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>184</v>
+      </c>
+      <c r="D178" t="s">
+        <v>302</v>
+      </c>
+      <c r="E178" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" s="1">
         <v>1521</v>
       </c>
       <c r="B179" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>253</v>
+      </c>
+      <c r="D179" t="s">
+        <v>328</v>
+      </c>
+      <c r="E179" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" s="1">
         <v>1522</v>
       </c>
       <c r="B180" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C180" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>254</v>
+      </c>
+      <c r="E180" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" s="1">
         <v>1538</v>
       </c>
       <c r="B181" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>253</v>
+      </c>
+      <c r="D181" t="s">
+        <v>328</v>
+      </c>
+      <c r="E181" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" s="1">
         <v>1539</v>
       </c>
       <c r="B182" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C182" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+        <v>254</v>
+      </c>
+      <c r="E182" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" s="1">
         <v>1555</v>
       </c>
       <c r="B183" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+        <v>194</v>
+      </c>
+      <c r="D183" t="s">
+        <v>305</v>
+      </c>
+      <c r="E183" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" s="1">
         <v>1580</v>
       </c>
       <c r="B184" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <v>181</v>
+      </c>
+      <c r="D184" t="s">
+        <v>302</v>
+      </c>
+      <c r="E184" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" s="1">
         <v>1588</v>
       </c>
       <c r="B185" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>204</v>
+      </c>
+      <c r="D185" t="s">
+        <v>302</v>
+      </c>
+      <c r="E185" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" s="1">
         <v>1613</v>
       </c>
       <c r="B186" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <v>186</v>
+      </c>
+      <c r="D186" t="s">
+        <v>302</v>
+      </c>
+      <c r="E186" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" s="1">
         <v>1619</v>
       </c>
       <c r="B187" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>219</v>
+      </c>
+      <c r="D187" t="s">
+        <v>302</v>
+      </c>
+      <c r="E187" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" s="1">
         <v>1651</v>
       </c>
       <c r="B188" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>213</v>
+      </c>
+      <c r="D188" t="s">
+        <v>303</v>
+      </c>
+      <c r="E188" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" s="1">
         <v>1652</v>
       </c>
       <c r="B189" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>214</v>
+      </c>
+      <c r="D189" t="s">
+        <v>303</v>
+      </c>
+      <c r="E189" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" s="1">
         <v>1678</v>
       </c>
       <c r="B190" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>213</v>
+      </c>
+      <c r="D190" t="s">
+        <v>303</v>
+      </c>
+      <c r="E190" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" s="1">
         <v>1679</v>
       </c>
       <c r="B191" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>214</v>
+      </c>
+      <c r="D191" t="s">
+        <v>303</v>
+      </c>
+      <c r="E191" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" s="1">
         <v>1706</v>
       </c>
       <c r="B192" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>186</v>
+      </c>
+      <c r="D192" t="s">
+        <v>302</v>
+      </c>
+      <c r="E192" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" s="1">
         <v>1735</v>
       </c>
       <c r="B193" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+        <v>179</v>
+      </c>
+      <c r="D193" t="s">
+        <v>305</v>
+      </c>
+      <c r="E193" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" s="1">
         <v>1748</v>
       </c>
       <c r="B194" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>255</v>
+      </c>
+      <c r="E194" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" s="1">
         <v>1749</v>
       </c>
       <c r="B195" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+        <v>255</v>
+      </c>
+      <c r="E195" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" s="1">
         <v>1783</v>
       </c>
       <c r="B196" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+        <v>196</v>
+      </c>
+      <c r="D196" t="s">
+        <v>306</v>
+      </c>
+      <c r="E196" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" s="1">
         <v>1784</v>
       </c>
       <c r="B197" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+        <v>219</v>
+      </c>
+      <c r="D197" t="s">
+        <v>302</v>
+      </c>
+      <c r="E197" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" s="1">
         <v>1791</v>
       </c>
       <c r="B198" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+        <v>245</v>
+      </c>
+      <c r="D198" t="s">
+        <v>323</v>
+      </c>
+      <c r="E198" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" s="1">
         <v>1792</v>
       </c>
       <c r="B199" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+        <v>245</v>
+      </c>
+      <c r="D199" t="s">
+        <v>323</v>
+      </c>
+      <c r="E199" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" s="1">
         <v>1808</v>
       </c>
       <c r="B200" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+        <v>245</v>
+      </c>
+      <c r="D200" t="s">
+        <v>323</v>
+      </c>
+      <c r="E200" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" s="1">
         <v>1809</v>
       </c>
       <c r="B201" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+        <v>245</v>
+      </c>
+      <c r="D201" t="s">
+        <v>323</v>
+      </c>
+      <c r="E201" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202" s="1">
         <v>1825</v>
       </c>
       <c r="B202" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+        <v>220</v>
+      </c>
+      <c r="D202" t="s">
+        <v>317</v>
+      </c>
+      <c r="E202" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203" s="1">
         <v>1826</v>
       </c>
       <c r="B203" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+        <v>194</v>
+      </c>
+      <c r="D203" t="s">
+        <v>305</v>
+      </c>
+      <c r="E203" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" s="1">
         <v>1833</v>
       </c>
       <c r="B204" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <v>256</v>
+      </c>
+      <c r="D204" t="s">
+        <v>310</v>
+      </c>
+      <c r="E204" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205" s="1">
         <v>1859</v>
       </c>
       <c r="B205" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+        <v>221</v>
+      </c>
+      <c r="D205" t="s">
+        <v>318</v>
+      </c>
+      <c r="E205" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206" s="1">
         <v>1870</v>
       </c>
       <c r="B206" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>256</v>
+      </c>
+      <c r="D206" t="s">
+        <v>310</v>
+      </c>
+      <c r="E206" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207" s="1">
         <v>1877</v>
       </c>
       <c r="B207" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+        <v>194</v>
+      </c>
+      <c r="D207" t="s">
+        <v>305</v>
+      </c>
+      <c r="E207" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208" s="1">
         <v>1884</v>
       </c>
       <c r="B208" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <v>204</v>
+      </c>
+      <c r="D208" t="s">
+        <v>302</v>
+      </c>
+      <c r="E208" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209" s="1">
         <v>1914</v>
       </c>
       <c r="B209" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <v>222</v>
+      </c>
+      <c r="E209" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210" s="1">
         <v>1915</v>
       </c>
       <c r="B210" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C210" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>223</v>
+      </c>
+      <c r="E210" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211" s="1">
         <v>1931</v>
       </c>
       <c r="B211" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
+        <v>222</v>
+      </c>
+      <c r="E211" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212" s="1">
         <v>1932</v>
       </c>
       <c r="B212" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C212" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+        <v>223</v>
+      </c>
+      <c r="E212" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213" s="1">
         <v>1948</v>
       </c>
       <c r="B213" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>227</v>
+      </c>
+      <c r="D213" t="s">
+        <v>319</v>
+      </c>
+      <c r="E213" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214" s="1">
         <v>1949</v>
       </c>
       <c r="B214" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C214" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
+        <v>228</v>
+      </c>
+      <c r="E214" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215" s="1">
         <v>1965</v>
       </c>
       <c r="B215" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <v>227</v>
+      </c>
+      <c r="D215" t="s">
+        <v>319</v>
+      </c>
+      <c r="E215" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216" s="1">
         <v>1966</v>
       </c>
       <c r="B216" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C216" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+        <v>228</v>
+      </c>
+      <c r="E216" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217" s="1">
         <v>1982</v>
       </c>
       <c r="B217" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
+        <v>227</v>
+      </c>
+      <c r="D217" t="s">
+        <v>319</v>
+      </c>
+      <c r="E217" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218" s="1">
         <v>1983</v>
       </c>
       <c r="B218" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C218" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+        <v>228</v>
+      </c>
+      <c r="E218" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219" s="1">
         <v>1999</v>
       </c>
       <c r="B219" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
+        <v>227</v>
+      </c>
+      <c r="D219" t="s">
+        <v>319</v>
+      </c>
+      <c r="E219" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220" s="1">
         <v>2000</v>
       </c>
       <c r="B220" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C220" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
+        <v>228</v>
+      </c>
+      <c r="E220" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221" s="1">
         <v>2016</v>
       </c>
       <c r="B221" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+        <v>227</v>
+      </c>
+      <c r="D221" t="s">
+        <v>319</v>
+      </c>
+      <c r="E221" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222" s="1">
         <v>2017</v>
       </c>
       <c r="B222" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C222" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
+        <v>228</v>
+      </c>
+      <c r="E222" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223" s="1">
         <v>2035</v>
       </c>
       <c r="B223" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
+        <v>257</v>
+      </c>
+      <c r="E223" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224" s="1">
         <v>2036</v>
       </c>
       <c r="B224" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
+        <v>258</v>
+      </c>
+      <c r="D224" t="s">
+        <v>329</v>
+      </c>
+      <c r="E224" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" s="1">
         <v>2037</v>
       </c>
       <c r="B225" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
+        <v>259</v>
+      </c>
+      <c r="D225" t="s">
+        <v>302</v>
+      </c>
+      <c r="E225" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" s="1">
         <v>2039</v>
       </c>
       <c r="B226" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
+        <v>194</v>
+      </c>
+      <c r="D226" t="s">
+        <v>305</v>
+      </c>
+      <c r="E226" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" s="1">
         <v>2049</v>
       </c>
       <c r="B227" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
+        <v>175</v>
+      </c>
+      <c r="D227" t="s">
+        <v>302</v>
+      </c>
+      <c r="E227" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" s="1">
         <v>2050</v>
       </c>
       <c r="B228" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+        <v>216</v>
+      </c>
+      <c r="D228" t="s">
+        <v>302</v>
+      </c>
+      <c r="E228" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229" s="1">
         <v>2064</v>
       </c>
       <c r="B229" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+        <v>182</v>
+      </c>
+      <c r="D229" t="s">
+        <v>306</v>
+      </c>
+      <c r="E229" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230" s="1">
         <v>2070</v>
       </c>
       <c r="B230" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+        <v>260</v>
+      </c>
+      <c r="D230" t="s">
+        <v>303</v>
+      </c>
+      <c r="E230" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231" s="1">
         <v>2071</v>
       </c>
       <c r="B231" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+        <v>260</v>
+      </c>
+      <c r="D231" t="s">
+        <v>303</v>
+      </c>
+      <c r="E231" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" s="1">
         <v>2085</v>
       </c>
       <c r="B232" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <v>260</v>
+      </c>
+      <c r="D232" t="s">
+        <v>303</v>
+      </c>
+      <c r="E232" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233" s="1">
         <v>2086</v>
       </c>
       <c r="B233" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+        <v>260</v>
+      </c>
+      <c r="D233" t="s">
+        <v>303</v>
+      </c>
+      <c r="E233" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234" s="1">
         <v>2100</v>
       </c>
       <c r="B234" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <v>237</v>
+      </c>
+      <c r="D234" t="s">
+        <v>302</v>
+      </c>
+      <c r="E234" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235" s="1">
         <v>2113</v>
       </c>
       <c r="B235" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+        <v>237</v>
+      </c>
+      <c r="D235" t="s">
+        <v>302</v>
+      </c>
+      <c r="E235" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236" s="1">
         <v>2124</v>
       </c>
       <c r="B236" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <v>175</v>
+      </c>
+      <c r="D236" t="s">
+        <v>302</v>
+      </c>
+      <c r="E236" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" s="1">
         <v>2125</v>
       </c>
       <c r="B237" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+        <v>231</v>
+      </c>
+      <c r="D237" t="s">
+        <v>306</v>
+      </c>
+      <c r="E237" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238" s="1">
         <v>2133</v>
       </c>
       <c r="B238" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
+        <v>186</v>
+      </c>
+      <c r="D238" t="s">
+        <v>302</v>
+      </c>
+      <c r="E238" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239" s="1">
         <v>2147</v>
       </c>
       <c r="B239" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <v>205</v>
+      </c>
+      <c r="D239" t="s">
+        <v>302</v>
+      </c>
+      <c r="E239" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" s="1">
         <v>2161</v>
       </c>
       <c r="B240" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
+        <v>261</v>
+      </c>
+      <c r="D240" t="s">
+        <v>302</v>
+      </c>
+      <c r="E240" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241" s="1">
         <v>2175</v>
       </c>
       <c r="B241" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
+        <v>242</v>
+      </c>
+      <c r="D241" t="s">
+        <v>324</v>
+      </c>
+      <c r="E241" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242" s="1">
         <v>2176</v>
       </c>
       <c r="B242" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
+        <v>242</v>
+      </c>
+      <c r="D242" t="s">
+        <v>324</v>
+      </c>
+      <c r="E242" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
       <c r="A243" s="1">
         <v>2192</v>
       </c>
       <c r="B243" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
+        <v>234</v>
+      </c>
+      <c r="D243" t="s">
+        <v>320</v>
+      </c>
+      <c r="E243" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
       <c r="A244" s="1">
         <v>2193</v>
       </c>
       <c r="B244" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
+        <v>262</v>
+      </c>
+      <c r="D244" t="s">
+        <v>318</v>
+      </c>
+      <c r="E244" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
       <c r="A245" s="1">
         <v>2194</v>
       </c>
       <c r="B245" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
+        <v>231</v>
+      </c>
+      <c r="D245" t="s">
+        <v>306</v>
+      </c>
+      <c r="E245" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
       <c r="A246" s="1">
         <v>2201</v>
       </c>
       <c r="B246" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
+        <v>242</v>
+      </c>
+      <c r="D246" t="s">
+        <v>324</v>
+      </c>
+      <c r="E246" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
       <c r="A247" s="1">
         <v>2202</v>
       </c>
       <c r="B247" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
+        <v>242</v>
+      </c>
+      <c r="D247" t="s">
+        <v>324</v>
+      </c>
+      <c r="E247" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
       <c r="A248" s="1">
         <v>2216</v>
       </c>
       <c r="B248" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
+        <v>263</v>
+      </c>
+      <c r="D248" t="s">
+        <v>323</v>
+      </c>
+      <c r="E248" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
       <c r="A249" s="1">
         <v>2217</v>
       </c>
       <c r="B249" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
+        <v>263</v>
+      </c>
+      <c r="D249" t="s">
+        <v>323</v>
+      </c>
+      <c r="E249" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
       <c r="A250" s="1">
         <v>2231</v>
       </c>
       <c r="B250" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
+        <v>264</v>
+      </c>
+      <c r="D250" t="s">
+        <v>305</v>
+      </c>
+      <c r="E250" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
       <c r="A251" s="1">
         <v>2232</v>
       </c>
       <c r="B251" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
+        <v>265</v>
+      </c>
+      <c r="D251" t="s">
+        <v>314</v>
+      </c>
+      <c r="E251" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
       <c r="A252" s="1">
         <v>2233</v>
       </c>
       <c r="B252" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
+        <v>196</v>
+      </c>
+      <c r="D252" t="s">
+        <v>306</v>
+      </c>
+      <c r="E252" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
       <c r="A253" s="1">
         <v>2240</v>
       </c>
       <c r="B253" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
+        <v>266</v>
+      </c>
+      <c r="E253" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
       <c r="A254" s="1">
         <v>2241</v>
       </c>
       <c r="B254" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
+        <v>267</v>
+      </c>
+      <c r="E254" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
       <c r="A255" s="1">
         <v>2260</v>
       </c>
       <c r="B255" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
+        <v>268</v>
+      </c>
+      <c r="E255" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
       <c r="A256" s="1">
         <v>2261</v>
       </c>
       <c r="B256" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
+        <v>269</v>
+      </c>
+      <c r="D256" t="s">
+        <v>302</v>
+      </c>
+      <c r="E256" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
       <c r="A257" s="1">
         <v>2268</v>
       </c>
       <c r="B257" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
+        <v>231</v>
+      </c>
+      <c r="D257" t="s">
+        <v>306</v>
+      </c>
+      <c r="E257" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
       <c r="A258" s="1">
         <v>2275</v>
       </c>
       <c r="B258" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
+        <v>265</v>
+      </c>
+      <c r="D258" t="s">
+        <v>314</v>
+      </c>
+      <c r="E258" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
       <c r="A259" s="1">
         <v>2300</v>
       </c>
       <c r="B259" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
+        <v>181</v>
+      </c>
+      <c r="D259" t="s">
+        <v>302</v>
+      </c>
+      <c r="E259" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
       <c r="A260" s="1">
         <v>2301</v>
       </c>
       <c r="B260" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
+        <v>270</v>
+      </c>
+      <c r="D260" t="s">
+        <v>314</v>
+      </c>
+      <c r="E260" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
       <c r="A261" s="1">
         <v>2308</v>
       </c>
       <c r="B261" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
+        <v>271</v>
+      </c>
+      <c r="D261" t="s">
+        <v>330</v>
+      </c>
+      <c r="E261" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
       <c r="A262" s="1">
         <v>2315</v>
       </c>
       <c r="B262" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
+        <v>272</v>
+      </c>
+      <c r="D262" t="s">
+        <v>330</v>
+      </c>
+      <c r="E262" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
       <c r="A263" s="1">
         <v>2322</v>
       </c>
       <c r="B263" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
+        <v>265</v>
+      </c>
+      <c r="D263" t="s">
+        <v>314</v>
+      </c>
+      <c r="E263" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
       <c r="A264" s="1">
         <v>2347</v>
       </c>
       <c r="B264" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
+        <v>227</v>
+      </c>
+      <c r="D264" t="s">
+        <v>319</v>
+      </c>
+      <c r="E264" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
       <c r="A265" s="1">
         <v>2348</v>
       </c>
       <c r="B265" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C265" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
+        <v>228</v>
+      </c>
+      <c r="E265" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
       <c r="A266" s="1">
         <v>2364</v>
       </c>
       <c r="B266" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
+        <v>227</v>
+      </c>
+      <c r="D266" t="s">
+        <v>319</v>
+      </c>
+      <c r="E266" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
       <c r="A267" s="1">
         <v>2365</v>
       </c>
       <c r="B267" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C267" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
+        <v>228</v>
+      </c>
+      <c r="E267" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
       <c r="A268" s="1">
         <v>2381</v>
       </c>
       <c r="B268" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
+        <v>227</v>
+      </c>
+      <c r="D268" t="s">
+        <v>319</v>
+      </c>
+      <c r="E268" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
       <c r="A269" s="1">
         <v>2382</v>
       </c>
       <c r="B269" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C269" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
+        <v>228</v>
+      </c>
+      <c r="E269" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
       <c r="A270" s="1">
         <v>2398</v>
       </c>
       <c r="B270" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
+        <v>227</v>
+      </c>
+      <c r="D270" t="s">
+        <v>319</v>
+      </c>
+      <c r="E270" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
       <c r="A271" s="1">
         <v>2399</v>
       </c>
       <c r="B271" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C271" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
+        <v>228</v>
+      </c>
+      <c r="E271" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
       <c r="A272" s="1">
         <v>2415</v>
       </c>
       <c r="B272" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
+        <v>273</v>
+      </c>
+      <c r="D272" t="s">
+        <v>331</v>
+      </c>
+      <c r="E272" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
       <c r="A273" s="1">
         <v>2416</v>
       </c>
       <c r="B273" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
+        <v>273</v>
+      </c>
+      <c r="D273" t="s">
+        <v>331</v>
+      </c>
+      <c r="E273" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
       <c r="A274" s="1">
         <v>2432</v>
       </c>
       <c r="B274" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
+        <v>175</v>
+      </c>
+      <c r="D274" t="s">
+        <v>302</v>
+      </c>
+      <c r="E274" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
       <c r="A275" s="1">
         <v>2435</v>
       </c>
       <c r="B275" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
+        <v>200</v>
+      </c>
+      <c r="D275" t="s">
+        <v>302</v>
+      </c>
+      <c r="E275" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
       <c r="A276" s="1">
         <v>2467</v>
       </c>
       <c r="B276" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
+        <v>265</v>
+      </c>
+      <c r="D276" t="s">
+        <v>314</v>
+      </c>
+      <c r="E276" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
       <c r="A277" s="1">
         <v>2492</v>
       </c>
       <c r="B277" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
+        <v>231</v>
+      </c>
+      <c r="D277" t="s">
+        <v>306</v>
+      </c>
+      <c r="E277" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
       <c r="A278" s="1">
         <v>2499</v>
       </c>
       <c r="B278" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
+        <v>231</v>
+      </c>
+      <c r="D278" t="s">
+        <v>306</v>
+      </c>
+      <c r="E278" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
       <c r="A279" s="1">
         <v>2513</v>
       </c>
       <c r="B279" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
+        <v>271</v>
+      </c>
+      <c r="D279" t="s">
+        <v>330</v>
+      </c>
+      <c r="E279" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
       <c r="A280" s="1">
         <v>2525</v>
       </c>
       <c r="B280" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
+        <v>272</v>
+      </c>
+      <c r="D280" t="s">
+        <v>330</v>
+      </c>
+      <c r="E280" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
       <c r="A281" s="1">
         <v>2537</v>
       </c>
       <c r="B281" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
+        <v>269</v>
+      </c>
+      <c r="D281" t="s">
+        <v>302</v>
+      </c>
+      <c r="E281" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
       <c r="A282" s="1">
         <v>2544</v>
       </c>
       <c r="B282" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
+        <v>196</v>
+      </c>
+      <c r="D282" t="s">
+        <v>306</v>
+      </c>
+      <c r="E282" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
       <c r="A283" s="1">
         <v>2551</v>
       </c>
       <c r="B283" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
+        <v>274</v>
+      </c>
+      <c r="E283" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
       <c r="A284" s="1">
         <v>2552</v>
       </c>
       <c r="B284" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
+        <v>275</v>
+      </c>
+      <c r="E284" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
       <c r="A285" s="1">
         <v>2568</v>
       </c>
       <c r="B285" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
+        <v>265</v>
+      </c>
+      <c r="D285" t="s">
+        <v>314</v>
+      </c>
+      <c r="E285" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
       <c r="A286" s="1">
         <v>2593</v>
       </c>
       <c r="B286" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
+        <v>255</v>
+      </c>
+      <c r="E286" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
       <c r="A287" s="1">
         <v>2594</v>
       </c>
       <c r="B287" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
+        <v>255</v>
+      </c>
+      <c r="E287" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
       <c r="A288" s="1">
         <v>2626</v>
       </c>
       <c r="B288" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
+        <v>181</v>
+      </c>
+      <c r="D288" t="s">
+        <v>302</v>
+      </c>
+      <c r="E288" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
       <c r="A289" s="1">
         <v>2633</v>
       </c>
       <c r="B289" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
+        <v>248</v>
+      </c>
+      <c r="D289" t="s">
+        <v>302</v>
+      </c>
+      <c r="E289" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
       <c r="A290" s="1">
         <v>2658</v>
       </c>
       <c r="B290" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
+        <v>276</v>
+      </c>
+      <c r="D290" t="s">
+        <v>332</v>
+      </c>
+      <c r="E290" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
       <c r="A291" s="1">
         <v>2660</v>
       </c>
       <c r="B291" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
+        <v>173</v>
+      </c>
+      <c r="D291" t="s">
+        <v>302</v>
+      </c>
+      <c r="E291" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
       <c r="A292" s="1">
         <v>2661</v>
       </c>
       <c r="B292" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
+        <v>277</v>
+      </c>
+      <c r="D292" t="s">
+        <v>303</v>
+      </c>
+      <c r="E292" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
       <c r="A293" s="1">
         <v>2668</v>
       </c>
       <c r="B293" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
+        <v>277</v>
+      </c>
+      <c r="D293" t="s">
+        <v>303</v>
+      </c>
+      <c r="E293" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
       <c r="A294" s="1">
         <v>2676</v>
       </c>
       <c r="B294" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
+        <v>278</v>
+      </c>
+      <c r="D294" t="s">
+        <v>302</v>
+      </c>
+      <c r="E294" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
       <c r="A295" s="1">
         <v>2682</v>
       </c>
       <c r="B295" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
+        <v>196</v>
+      </c>
+      <c r="D295" t="s">
+        <v>306</v>
+      </c>
+      <c r="E295" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
       <c r="A296" s="1">
         <v>2683</v>
       </c>
       <c r="B296" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
+        <v>194</v>
+      </c>
+      <c r="D296" t="s">
+        <v>305</v>
+      </c>
+      <c r="E296" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
       <c r="A297" s="1">
         <v>2684</v>
       </c>
       <c r="B297" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
+        <v>279</v>
+      </c>
+      <c r="D297" t="s">
+        <v>302</v>
+      </c>
+      <c r="E297" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
       <c r="A298" s="1">
         <v>2685</v>
       </c>
       <c r="B298" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3">
+        <v>204</v>
+      </c>
+      <c r="D298" t="s">
+        <v>302</v>
+      </c>
+      <c r="E298" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
       <c r="A299" s="1">
         <v>2686</v>
       </c>
       <c r="B299" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3">
+        <v>185</v>
+      </c>
+      <c r="D299" t="s">
+        <v>302</v>
+      </c>
+      <c r="E299" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
       <c r="A300" s="1">
         <v>2687</v>
       </c>
       <c r="B300" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
+        <v>280</v>
+      </c>
+      <c r="D300" t="s">
+        <v>333</v>
+      </c>
+      <c r="E300" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
       <c r="A301" s="1">
         <v>2689</v>
       </c>
       <c r="B301" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
+        <v>184</v>
+      </c>
+      <c r="D301" t="s">
+        <v>302</v>
+      </c>
+      <c r="E301" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
       <c r="A302" s="1">
         <v>2691</v>
       </c>
       <c r="B302" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3">
+        <v>281</v>
+      </c>
+      <c r="D302" t="s">
+        <v>305</v>
+      </c>
+      <c r="E302" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
       <c r="A303" s="1">
         <v>2697</v>
       </c>
       <c r="B303" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3">
+        <v>180</v>
+      </c>
+      <c r="D303" t="s">
+        <v>305</v>
+      </c>
+      <c r="E303" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
       <c r="A304" s="1">
         <v>2705</v>
       </c>
       <c r="B304" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3">
+        <v>179</v>
+      </c>
+      <c r="D304" t="s">
+        <v>305</v>
+      </c>
+      <c r="E304" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
       <c r="A305" s="1">
         <v>2712</v>
       </c>
       <c r="B305" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3">
+        <v>282</v>
+      </c>
+      <c r="D305" t="s">
+        <v>305</v>
+      </c>
+      <c r="E305" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
       <c r="A306" s="1">
         <v>2718</v>
       </c>
       <c r="B306" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
+        <v>184</v>
+      </c>
+      <c r="D306" t="s">
+        <v>302</v>
+      </c>
+      <c r="E306" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
       <c r="A307" s="1">
         <v>2719</v>
       </c>
       <c r="B307" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3">
+        <v>283</v>
+      </c>
+      <c r="D307" t="s">
+        <v>334</v>
+      </c>
+      <c r="E307" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
       <c r="A308" s="1">
         <v>2720</v>
       </c>
       <c r="B308" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C308" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3">
+        <v>284</v>
+      </c>
+      <c r="E308" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
       <c r="A309" s="1">
         <v>2722</v>
       </c>
       <c r="B309" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3">
+        <v>234</v>
+      </c>
+      <c r="D309" t="s">
+        <v>320</v>
+      </c>
+      <c r="E309" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
       <c r="A310" s="1">
         <v>2724</v>
       </c>
       <c r="B310" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
+        <v>170</v>
+      </c>
+      <c r="D310" t="s">
+        <v>303</v>
+      </c>
+      <c r="E310" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
       <c r="A311" s="1">
         <v>2733</v>
       </c>
       <c r="B311" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
+        <v>170</v>
+      </c>
+      <c r="D311" t="s">
+        <v>303</v>
+      </c>
+      <c r="E311" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
       <c r="A312" s="1">
         <v>2741</v>
       </c>
       <c r="B312" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3">
+        <v>285</v>
+      </c>
+      <c r="D312" t="s">
+        <v>305</v>
+      </c>
+      <c r="E312" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
       <c r="A313" s="1">
         <v>2748</v>
       </c>
       <c r="B313" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
+        <v>286</v>
+      </c>
+      <c r="D313" t="s">
+        <v>303</v>
+      </c>
+      <c r="E313" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
       <c r="A314" s="1">
         <v>2755</v>
       </c>
       <c r="B314" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3">
+        <v>169</v>
+      </c>
+      <c r="D314" t="s">
+        <v>302</v>
+      </c>
+      <c r="E314" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
       <c r="A315" s="1">
         <v>2756</v>
       </c>
       <c r="B315" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3">
+        <v>287</v>
+      </c>
+      <c r="E315" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
       <c r="A316" s="1">
         <v>2757</v>
       </c>
       <c r="B316" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3">
+        <v>288</v>
+      </c>
+      <c r="D316" t="s">
+        <v>335</v>
+      </c>
+      <c r="E316" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
       <c r="A317" s="1">
         <v>2758</v>
       </c>
       <c r="B317" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C317" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3">
+        <v>289</v>
+      </c>
+      <c r="E317" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
       <c r="A318" s="1">
         <v>2761</v>
       </c>
       <c r="B318" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3">
+        <v>290</v>
+      </c>
+      <c r="D318" t="s">
+        <v>336</v>
+      </c>
+      <c r="E318" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
       <c r="A319" s="1">
         <v>2767</v>
       </c>
       <c r="B319" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3">
+        <v>291</v>
+      </c>
+      <c r="D319" t="s">
+        <v>337</v>
+      </c>
+      <c r="E319" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
       <c r="A320" s="1">
         <v>2769</v>
       </c>
       <c r="B320" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3">
+        <v>291</v>
+      </c>
+      <c r="D320" t="s">
+        <v>337</v>
+      </c>
+      <c r="E320" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
       <c r="A321" s="1">
         <v>2772</v>
       </c>
       <c r="B321" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3">
+        <v>291</v>
+      </c>
+      <c r="D321" t="s">
+        <v>337</v>
+      </c>
+      <c r="E321" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
       <c r="A322" s="1">
         <v>2781</v>
       </c>
       <c r="B322" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3">
+        <v>291</v>
+      </c>
+      <c r="D322" t="s">
+        <v>337</v>
+      </c>
+      <c r="E322" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
       <c r="A323" s="1">
         <v>2783</v>
       </c>
       <c r="B323" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3">
+        <v>292</v>
+      </c>
+      <c r="D323" t="s">
+        <v>338</v>
+      </c>
+      <c r="E323" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
       <c r="A324" s="1">
         <v>2784</v>
       </c>
       <c r="B324" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3">
+        <v>293</v>
+      </c>
+      <c r="D324" t="s">
+        <v>302</v>
+      </c>
+      <c r="E324" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
       <c r="A325" s="1">
         <v>2787</v>
       </c>
       <c r="B325" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3">
+        <v>294</v>
+      </c>
+      <c r="D325" t="s">
+        <v>302</v>
+      </c>
+      <c r="E325" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
       <c r="A326" s="1">
         <v>2790</v>
       </c>
       <c r="B326" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3">
+        <v>295</v>
+      </c>
+      <c r="D326" t="s">
+        <v>302</v>
+      </c>
+      <c r="E326" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
       <c r="A327" s="1">
         <v>2791</v>
       </c>
       <c r="B327" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
+        <v>174</v>
+      </c>
+      <c r="D327" t="s">
+        <v>304</v>
+      </c>
+      <c r="E327" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
       <c r="A328" s="1">
         <v>2798</v>
       </c>
       <c r="B328" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
+        <v>174</v>
+      </c>
+      <c r="D328" t="s">
+        <v>304</v>
+      </c>
+      <c r="E328" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
       <c r="A329" s="1">
         <v>2805</v>
       </c>
       <c r="B329" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
+        <v>265</v>
+      </c>
+      <c r="D329" t="s">
+        <v>314</v>
+      </c>
+      <c r="E329" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
       <c r="A330" s="1">
         <v>2806</v>
       </c>
       <c r="B330" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
+        <v>277</v>
+      </c>
+      <c r="D330" t="s">
+        <v>303</v>
+      </c>
+      <c r="E330" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
       <c r="A331" s="1">
         <v>2813</v>
       </c>
       <c r="B331" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
+        <v>277</v>
+      </c>
+      <c r="D331" t="s">
+        <v>303</v>
+      </c>
+      <c r="E331" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
       <c r="A332" s="1">
         <v>2820</v>
       </c>
       <c r="B332" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
+        <v>277</v>
+      </c>
+      <c r="D332" t="s">
+        <v>303</v>
+      </c>
+      <c r="E332" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
       <c r="A333" s="1">
         <v>2827</v>
       </c>
       <c r="B333" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
+        <v>277</v>
+      </c>
+      <c r="D333" t="s">
+        <v>303</v>
+      </c>
+      <c r="E333" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
       <c r="A334" s="1">
         <v>2835</v>
       </c>
       <c r="B334" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
+        <v>296</v>
+      </c>
+      <c r="D334" t="s">
+        <v>309</v>
+      </c>
+      <c r="E334" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
       <c r="A335" s="1">
         <v>2836</v>
       </c>
       <c r="B335" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C335" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3">
+        <v>297</v>
+      </c>
+      <c r="E335" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
       <c r="A336" s="1">
         <v>2846</v>
       </c>
       <c r="B336" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3">
+        <v>171</v>
+      </c>
+      <c r="E336" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
       <c r="A337" s="1">
         <v>2848</v>
       </c>
       <c r="B337" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3">
+        <v>171</v>
+      </c>
+      <c r="E337" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
       <c r="A338" s="1">
         <v>2850</v>
       </c>
       <c r="B338" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3">
+        <v>171</v>
+      </c>
+      <c r="E338" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
       <c r="A339" s="1">
         <v>2852</v>
       </c>
       <c r="B339" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3">
+        <v>298</v>
+      </c>
+      <c r="E339" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
       <c r="A340" s="1">
         <v>2854</v>
       </c>
       <c r="B340" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3">
+        <v>298</v>
+      </c>
+      <c r="E340" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
       <c r="A341" s="1">
         <v>2856</v>
       </c>
       <c r="B341" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3">
+        <v>184</v>
+      </c>
+      <c r="D341" t="s">
+        <v>302</v>
+      </c>
+      <c r="E341" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
       <c r="A342" s="1">
         <v>2857</v>
       </c>
       <c r="B342" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3">
+        <v>174</v>
+      </c>
+      <c r="D342" t="s">
+        <v>304</v>
+      </c>
+      <c r="E342" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
       <c r="A343" s="1">
         <v>2874</v>
       </c>
       <c r="B343" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
+        <v>299</v>
+      </c>
+      <c r="D343" t="s">
+        <v>302</v>
+      </c>
+      <c r="E343" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
       <c r="A344" s="1">
         <v>2884</v>
       </c>
       <c r="B344" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3">
+        <v>300</v>
+      </c>
+      <c r="D344" t="s">
+        <v>309</v>
+      </c>
+      <c r="E344" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
       <c r="A345" s="1">
         <v>2885</v>
       </c>
       <c r="B345" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
+        <v>295</v>
+      </c>
+      <c r="D345" t="s">
+        <v>302</v>
+      </c>
+      <c r="E345" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
       <c r="A346" s="1">
         <v>2886</v>
       </c>
       <c r="B346" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3">
+        <v>234</v>
+      </c>
+      <c r="D346" t="s">
+        <v>320</v>
+      </c>
+      <c r="E346" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
       <c r="A347" s="1">
         <v>2887</v>
       </c>
       <c r="B347" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
+        <v>175</v>
+      </c>
+      <c r="D347" t="s">
+        <v>302</v>
+      </c>
+      <c r="E347" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
       <c r="A348" s="1">
         <v>2889</v>
       </c>
       <c r="B348" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="D348" t="s">
+        <v>305</v>
+      </c>
+      <c r="E348" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/non_youtube_urls.xlsx
+++ b/non_youtube_urls.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaleemullahqasim/Documents/GitHub/youtube_data_api_comments/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577AABCC-C4D5-3A4F-B628-A318B344F080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="333">
   <si>
     <t>Link-1</t>
   </si>
@@ -919,700 +925,97 @@
     <t>http://kimoci.online/</t>
   </si>
   <si>
-    <t xml:space="preserve">
-100% Free Dating Site
-WARNING!
-You will see nude photos/videos. Please be discreet.
-&gt;CONTINUE_x000D_
-&lt;
-459K Comments Member Register:
-Carol Baynes
-Great for privacy. Your photo and tagline are only displayed for an hour at a time, which also means youâd better move fast.
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        663 Â·_x000D_
-                                        5 mins ago
-Carmenza Duran Pena
-You donât need Facebook to log in to this one and can choose a nickname. Itâs very specific gender and kink-wise, so the potential is there to find your perfect partner. However, the free service is limited and full use is a costly Â£14.99/Â£7.50 a month, monthly/annually. I guess the question is, how much you value your kink?
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        300 Â·_x000D_
-                                        7 mins ago
-Lili Ramos
-I'm all ready. Thank....Thanks
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        471 Â·_x000D_
-                                        30 mins ago
-Sahra Tulaz
-Greattttt,,,,,just register, I get find a soul mate here....Thnk
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        539 Â·_x000D_
-                                        43 mins ago
-Mari Odaka
-god blessssss you..Love this site
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        633 Â·_x000D_
-                                        47 mins ago
-Mary Tait
-I'm looking for a love. !!!
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        768 Â·_x000D_
-                                        54 mins ago
-Tobias Tollbom
-I tried to get in to meet someone nice I didn't think! Or maybe someone hasn't come yet! I feel difficulties
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        246 Â·_x000D_
-                                        56 mins ago
-King Ho
-Looking for marriage seriously !! 
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        808 Â·_x000D_
-                                        1 hrs ago
-Shiran Huber
-Great..I love U ! 
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        506 Â·_x000D_
-                                        1 hrs ago
-Melissa Cameron
-I tried the site, and I found a soul mate near me 
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        993 Â·_x000D_
-                                        2 hrs ago
-Hytham Behiry
-I love this site !!!!!!!
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        632 Â·_x000D_
-                                        2 hrs ago
-Brian Hutchison
-I mean, I'll sign up right away. I'm real
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        712 Â·_x000D_
-                                        2 hrs ago
-Danielle Cossack-Barbieri
-Is there any way to hide my profile from people who live outside the US? As an A-list member, I've noticed that the majority of my likes are from women in Europe and Asia. !!
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        645 Â·_x000D_
-                                        3 hrs ago
-Paige Hubbs
-Cute, but I'd love to see more diverse representations of "dating success" beyond het white marriage. Last Feb was the same story with Eric and Jenn.
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        223 Â·_x000D_
-                                        4 hrs ago
- Facebook Comments Plugin
- LEAVE COMMENT
-Copyright Â© 2020 | Award Certificate | Trusted Event | tindersexplus  
-Contact Us
-Contact Us 
-Name
-Email
-Message
-Submit
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-100% Free Dating Site
-WARNING!
-You will see nude photos/videos. Please be discreet.
-&gt;CONTINUE_x000D_
-&lt;
-459K Comments Member Register:
-Carol Baynes
-Great for privacy. Your photo and tagline are only displayed for an hour at a time, which also means youâd better move fast.
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        663 Â·_x000D_
-                                        5 mins ago
-Carmenza Duran Pena
-You donât need Facebook to log in to this one and can choose a nickname. Itâs very specific gender and kink-wise, so the potential is there to find your perfect partner. However, the free service is limited and full use is a costly Â£14.99/Â£7.50 a month, monthly/annually. I guess the question is, how much you value your kink?
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        300 Â·_x000D_
-                                        7 mins ago
-Lili Ramos
-I'm all ready. Thank....Thanks
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        471 Â·_x000D_
-                                        30 mins ago
-Sahra Tulaz
-Greattttt,,,,,just register, I get find a soul mate here....Thnk
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        539 Â·_x000D_
-                                        43 mins ago
-Mari Odaka
-god blessssss you..Love this site
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        633 Â·_x000D_
-                                        47 mins ago
-Mary Tait
-I'm looking for a love. !!!
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        768 Â·_x000D_
-                                        54 mins ago
-Tobias Tollbom
-I tried to get in to meet someone nice I didn't think! Or maybe someone hasn't come yet! I feel difficulties
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        246 Â·_x000D_
-                                        56 mins ago
-King Ho
-Looking for marriage seriously !! 
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        808 Â·_x000D_
-                                        1 hrs ago
-Shiran Huber
-Great..I love U ! 
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        506 Â·_x000D_
-                                        1 hrs ago
-Melissa Cameron
-I tried the site, and I found a soul mate near me 
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        993 Â·_x000D_
-                                        2 hrs ago
-Hytham Behiry
-I love this site !!!!!!!
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        632 Â·_x000D_
-                                        2 hrs ago
-Brian Hutchison
-I mean, I'll sign up right away. I'm real
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        712 Â·_x000D_
-                                        2 hrs ago
-Danielle Cossack-Barbieri
-Is there any way to hide my profile from people who live outside the US? As an A-list member, I've noticed that the majority of my likes are from women in Europe and Asia. !!
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        645 Â·_x000D_
-                                        3 hrs ago
-Paige Hubbs
-Cute, but I'd love to see more diverse representations of "dating success" beyond het white marriage. Last Feb was the same story with Eric and Jenn.
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        223 Â·_x000D_
-                                        4 hrs ago
- Facebook Comments Plugin
- LEAVE COMMENT
-Copyright Â© 2020 | Award Certificate | Trusted Event | tindersexplus  
-Contact Us
-Contact Us 
-Name
-Email
-Message
-Submit
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Please Wait 
-You Are Automatic Redirecting
-To Secure Page
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-It's better than Sinder!
-_x000D_
-					04:59_x000D_
-It's better than Sinder!
-Are you looking for a men or a women?
-Men
-Women
-What's your gender?
-Men
-Women
-Are you older than 18 years?
-Yes
-No
-Do you agree to use a condom when having sex with a partner you meet on our site?
-Yes
-No
-You may now see our list and photos of women who are in your area. Again, please keep their identity a secret.
-Continue
-Unsubscribe
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Sexy Girl – Sexy Girl
-REGISTER
-FIND YOUR SOULMATE TODAY 
-Get Your Perfect Match in Your Area 
-SEE YOUR MATCHES
-Facebook-f
-Twitter
-Instagram
-Pinterest
-Google-plus-g
-GET-MOVIES.CLUB Â© 2021 All Rights Reserved 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Video Porn – Only 18+
-REGISTER
-FIND YOUR SOULMATE TODAY 
-Get Your Perfect Match in Your Area 
-CONTINUE
-Facebook-f
-Twitter
-Instagram
-Pinterest
-Google-plus-g
-GET-MOVIES.CLUB Â© 2021 All Rights Reserved 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-The most popular dating site of this monthunsubscribeadult onlyreport abuseGirls nearby Warning!Warning!You will see nude photos. Please be discreet.Continue question 1question 1Many of these women are desperate single moms and cheating wives looking for some fun. They could be your neighbors or someone you know. Do you agree to keep the identity of these women a secret?noyes question 2question 2Many of these women are desperate single moms and cheating wives looking for some fun. They could be your neighbors or someone you know. Do you agree to keep the identity of these women a secret?noyes question 3question 3Many of these women are desperate single moms and cheating wives looking for some fun. They could be your neighbors or someone you know. Do you agree to keep the identity of these women a secret?noyesthank you!thank you!You may now see our list and photos of women who are in your area. Again, please keep their identity a secret. Click on the "CONTINUE" button and search on the basis of your answers.Continue
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-resete.uno
-This domain was recently registered at Namecheap.com. Please check back later!
-resete.uno
-2022 Copyright.  All Rights Reserved.
-Privacy Policy
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Please Wait 
-You Are Automatic Redirecting
-To Secure Page
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-sexxo.uno
-This domain was recently registered at Namecheap.com. Please check back later!
-sexxo.uno
-2022 Copyright.  All Rights Reserved.
-Privacy Policy
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Best dating worldwide &lt;3
-WARNING!
-You will see nude photos of horny MILFs and Moms. Please be discreet.
-OK
-YOU MUST FOLLOW THE RULES GIVEN BELOW
-☝ If you see someone you know, DO NOT publicize it. Do not spread rumors.
-☝ When having sex with one of our members, it is your responsibility to protect yourself against STDs.
-☝ Respect sexual desires of other members. Our members are normal men and women, not pornstars or prostitutes.
-I AGREE
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-100% Free Dating Site
-WARNING!
-You will see nude photos/videos. Please be discreet.
-&gt;CONTINUE_x000D_
-&lt;
-459K Comments Member Register:
-Carol Baynes
-Great for privacy. Your photo and tagline are only displayed for an hour at a time, which also means youâd better move fast.
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        663 Â·_x000D_
-                                        5 mins ago
-Carmenza Duran Pena
-You donât need Facebook to log in to this one and can choose a nickname. Itâs very specific gender and kink-wise, so the potential is there to find your perfect partner. However, the free service is limited and full use is a costly Â£14.99/Â£7.50 a month, monthly/annually. I guess the question is, how much you value your kink?
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        300 Â·_x000D_
-                                        7 mins ago
-Lili Ramos
-I'm all ready. Thank....Thanks
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        471 Â·_x000D_
-                                        30 mins ago
-Sahra Tulaz
-Greattttt,,,,,just register, I get find a soul mate here....Thnk
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        539 Â·_x000D_
-                                        43 mins ago
-Mari Odaka
-god blessssss you..Love this site
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        633 Â·_x000D_
-                                        47 mins ago
-Mary Tait
-I'm looking for a love. !!!
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        768 Â·_x000D_
-                                        54 mins ago
-Tobias Tollbom
-I tried to get in to meet someone nice I didn't think! Or maybe someone hasn't come yet! I feel difficulties
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        246 Â·_x000D_
-                                        56 mins ago
-King Ho
-Looking for marriage seriously !! 
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        808 Â·_x000D_
-                                        1 hrs ago
-Shiran Huber
-Great..I love U ! 
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        506 Â·_x000D_
-                                        1 hrs ago
-Melissa Cameron
-I tried the site, and I found a soul mate near me 
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        993 Â·_x000D_
-                                        2 hrs ago
-Hytham Behiry
-I love this site !!!!!!!
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        632 Â·_x000D_
-                                        2 hrs ago
-Brian Hutchison
-I mean, I'll sign up right away. I'm real
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        712 Â·_x000D_
-                                        2 hrs ago
-Danielle Cossack-Barbieri
-Is there any way to hide my profile from people who live outside the US? As an A-list member, I've noticed that the majority of my likes are from women in Europe and Asia. !!
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        645 Â·_x000D_
-                                        3 hrs ago
-Paige Hubbs
-Cute, but I'd love to see more diverse representations of "dating success" beyond het white marriage. Last Feb was the same story with Eric and Jenn.
-Like Â·_x000D_
-                                        Reply Â·_x000D_
-_x000D_
-                                        223 Â·_x000D_
-                                        4 hrs ago
- Facebook Comments Plugin
- LEAVE COMMENT
-Copyright Â© 2020 | Award Certificate | Trusted Event | tindersexplus  
-Contact Us
-Contact Us 
-Name
-Email
-Message
-Submit
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-makinglove.uno
-This domain was recently registered at Namecheap.com. Please check back later!
-makinglove.uno
-2022 Copyright.  All Rights Reserved.
-Privacy Policy
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Sexy Girl – Sexy Girl
-REGISTER
-FIND YOUR SOULMATE TODAY 
-Get Your Perfect Match in Your Area 
-SEE YOUR MATCHES
-Facebook-f
-Twitter
-Instagram
-Pinterest
-Google-plus-g
-GET-MOVIES.CLUB Â© 2021 All Rights Reserved 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-The most popular dating site of this monthunsubscribeadult onlyreport abuseWarning!Before we can show you a list and photos of women who live near you and are ready to have sex right now, we need to ask a few quick questions.Continuequestion 1Many of these women are desperate single moms and cheating wives looking for some fun. They could be your neighbors or someone you know. Do you agree to keep the identity of these women a secret?noyesquestion 2These women have asked us to not allow men that are seeking a "relationship". They only desire quick sex. Not dating. Do you agree to this request?noyesquestion 3Are you at least 18 years old? The women have requested that we not let those younger than 18 contact them because of past rude behavior by younger men.noyesthank you!You may now see our list and photos of women who are in your area. Again, please keep their identity a secret. Click on the "CONTINUE" button and search on the basis of your answers.Continue
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-The most popular dating site of this monthunsubscribeadult onlyreport abuseGirls nearby:  Warning!Before we can show you a list and photos of women who live near you and are ready to have sex right now, we need to ask a few quick questions.Continuequestion 1Many of these women are desperate single moms and cheating wives looking for some fun. They could be your neighbors or someone you know. Do you agree to keep the identity of these women a secret?noyesquestion 2These women have asked us to not allow men that are seeking a "relationship". They only desire quick sex. Not dating. Do you agree to this request?noyesquestion 3Are you at least 18 years old? The women have requested that we not let those younger than 18 contact them because of past rude behavior by younger men.noyesthank you!You may now see our list and photos of women who are in your area. Again, please keep their identity a secret. Click on the "CONTINUE" button and search on the basis of your answers.Continue
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Sexy Girl – Sexy Girl
-REGISTER
-FIND YOUR SOULMATE TODAY 
-Get Your Perfect Match in Your Area 
-SEE YOUR MATCHES
-Facebook-f
-Twitter
-Instagram
-Pinterest
-Google-plus-g
-GET-MOVIES.CLUB Â© 2021 All Rights Reserved 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-toples.uno
-This domain was recently registered at Namecheap.com. Please check back later!
-toples.uno
-2022 Copyright.  All Rights Reserved.
-Privacy Policy
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-starmovies.uno
-This domain was recently registered at Namecheap.com. Please check back later!
-starmovies.uno
-2022 Copyright.  All Rights Reserved.
-Privacy Policy
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-girlforyou.uno
-This domain was recently registered at Namecheap.com. Please check back later!
-girlforyou.uno
-2022 Copyright.  All Rights Reserved.
-Privacy Policy
-</t>
-  </si>
-  <si>
-    <t>Twitch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 404 Not Found_x000D_
-404
-Not Found
-The resource requested could not be found on this server!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 404 Not Found_x000D_
-404
-Not Found_x000D_
-The resource requested could not be found on this server!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Age verification
-18+ ?
-NO
-YES
-</t>
-  </si>
-  <si>
-    <t>YouTubeAboutPressCopyrightContact usCreatorsAdvertiseDevelopersTermsPrivacyPolicy &amp; SafetyHow YouTube worksTest new features© 2022 Google LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Only 18+ – Sexy Nude Girls
-Hi! I’m Squirty 
-Let’s build your unique dating experience! 
-START
-By clicking on START you confirm you’re over 18 
-FLIRT &amp; CHAT 
-Naughty chat with girls at your service 
-PLAY &amp; CONTROL 
-Get your perfect match in your area 
-PRIVATE SHOW 
-Go Private with the model 
-Facebook-f
-Twitter
-Instagram
-Pinterest
-Google-plus-g
-GET-MOVIES.CLUB Â© 2021 All Rights Reserved 
-</t>
-  </si>
-  <si>
-    <t>Link not found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Apache HTTP Server Test Page powered by CentOS
-Testing 123..
-This page is used to test the proper operation of the Apache HTTP server after it has been installed. If you can read this page it means that this site is working properly. This server is powered by CentOS.
-Just visiting?
-The website you just visited is either experiencing problems or is undergoing routine maintenance.
-If you would like to let the administrators of this website know that you've seen this page instead of the page you expected, you should send them e-mail. In general, mail sent to the name "webmaster" and directed to the website's domain should reach the appropriate person.
-For example, if you experienced problems while visiting www.example.com, you should send e-mail to "webmaster@example.com".
-Are you the Administrator?
-You should add your website content to the directory /var/www/html/.
-To prevent this page from ever being used, follow the instructions in the file /etc/httpd/conf.d/welcome.conf.
-Promoting Apache and CentOS
-You are free to use the images below on Apache and CentOS Linux powered HTTP servers.  Thanks for using Apache and CentOS!
-Important note:
-The CentOS Project has nothing to do with this website or its content,
-            it just provides the software that makes the website run.
-If you have issues with the content of this site, contact the owner of the domain, not the CentOS project. 
-            Unless you intended to visit CentOS.org, the CentOS Project does not have anything to do with this website,
-            the content or the lack of it.
-For example, if this website is www.example.com, you would find the owner of the example.com domain at the following WHOIS server:
-http://www.internic.net/whois.html
-The CentOS Project
-The CentOS Linux distribution is a stable, predictable, manageable and reproduceable platform derived from 
-               the sources of Red Hat Enterprise Linux (RHEL).
-Additionally to being a popular choice for web hosting, CentOS also provides a rich platform for open source communities to build upon. For more information
-               please visit the CentOS website.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-sweetgirls.uno
-This domain was recently registered at Namecheap.com. Please check back later!
-sweetgirls.uno
-2022 Copyright.  All Rights Reserved.
-Privacy Policy
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-   | olivia
-Cancel
-Update
-Cart (0)
-Buy Now
-Continue Shopping
-Promo Code
-Cancel
-Apply
-@olivia
-                大人向けの最新コンテンツ 17年以上のみ
-                  VIEW CONTINUE
-made with
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Sexy Girl – Sexy Girl
-REGISTER
-FIND YOUR SOULMATE TODAY 
-Get Your Perfect Match in Your Area 
-SEE YOUR MATCHES
-Facebook-f
-Twitter
-Instagram
-Pinterest
-Google-plus-g
-GET-MOVIES.CLUB Â© 2020 All Rights Reserved 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-REZEKI
-Beranda
-Langganan:
-Postingan (Atom)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Now Loading
-Now Loading
-</t>
-  </si>
-  <si>
-    <t>This link is unavailable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-dulkaclep-jk
-Beranda
-Langganan:
-Postingan (Atom)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-NEWSONYEJIN
-Beranda
-Langganan:
-Postingan (Atom)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-The most popular dating site of this monthadult onlyreport abuseGirls nearby:  Warning!Before we can show you a list and photos of women who live near you and are ready to have sex right now, we need to ask a few quick questions.Continuequestion 1Many of these women are desperate single moms and cheating wives looking for some fun. They could be your neighbors or someone you know. Do you agree to keep the identity of these women a secret?noyesquestion 2These women have asked us to not allow men that are seeking a "relationship". They only desire quick sex. Not dating. Do you agree to this request?noyesquestion 3Are you at least 18 years old? The women have requested that we not let those younger than 18 contact them because of past rude behavior by younger men.noyesthank you!You may now see our list and photos of women who are in your area. Again, please keep their identity a secret. Click on the "CONTINUE" button and search on the basis of your answers.Continue
-</t>
+    <t>free dating site warning see nude photos videos please discreet continue x000d 459k comments member register carol baynes great privacy photo tagline displayed hour time also means youad better move fast like * x000d reply * x000d x000d * x000d mins ago carmenza duran pena donat need facebook log one choose nickname itas specific gender kink wise potential find perfect partner however free service limited full use costly aPS aPS month monthly annually guess question much value kink like * x000d reply * x000d x000d * x000d mins ago lili ramos ready thank thanks like * x000d reply * x000d x000d * x000d mins ago sahra tulaz greattttt register get find soul mate thnk like * x000d reply * x000d x000d * x000d mins ago mari odaka god blessssss love site like * x000d reply * x000d x000d * x000d mins ago mary tait looking love like * x000d reply * x000d x000d * x000d mins ago tobias tollbom tried get meet someone nice think maybe someone come yet feel difficulties like * x000d reply * x000d x000d * x000d mins ago king ho looking marriage seriously like * x000d reply * x000d x000d * x000d hrs ago shiran huber great love u like * x000d reply * x000d x000d * x000d hrs ago melissa cameron tried site found soul mate near like * x000d reply * x000d x000d * x000d hrs ago hytham behiry love site like * x000d reply * x000d x000d * x000d hrs ago brian hutchison mean sign right away real like * x000d reply * x000d x000d * x000d hrs ago danielle cossack barbieri way hide profile people live outside us list member noticed majority likes women europe asia like * x000d reply * x000d x000d * x000d hrs ago paige hubbs cute love see diverse representations dating success beyond het white marriage last feb story eric jenn like * x000d reply * x000d x000d * x000d hrs ago facebook comments plugin leave comment copyright (c) award certificate trusted event tindersexplus contact us contact us name email message submit</t>
+  </si>
+  <si>
+    <t>please wait automatic redirecting secure page</t>
+  </si>
+  <si>
+    <t>better sinder x000d 59 x000d better sinder looking men women men women gender men women older years yes agree use condom sex partner meet site yes may see list photos women area please keep identity secret continue unsubscribe</t>
+  </si>
+  <si>
+    <t>sexy girl - sexy girl register find soulmate today get perfect match area see matches facebook f twitter instagram pinterest google plus g get movies club (c) rights reserved</t>
+  </si>
+  <si>
+    <t>video porn - register find soulmate today get perfect match area continue facebook f twitter instagram pinterest google plus g get movies club (c) rights reserved</t>
+  </si>
+  <si>
+    <t>popular dating site monthunsubscribeadult onlyreport abusegirls nearby warning warning see nude photos please discreet continue question 1question 1many women desperate single moms cheating wives looking fun could neighbors someone know agree keep identity women secret noyes question 2question 2many women desperate single moms cheating wives looking fun could neighbors someone know agree keep identity women secret noyes question 3question 3many women desperate single moms cheating wives looking fun could neighbors someone know agree keep identity women secret noyesthank thank may see list photos women area please keep identity secret click continue button search basis answers continue</t>
+  </si>
+  <si>
+    <t>resete uno domain recently registered namecheap com please check back later resete uno copyright rights reserved privacy policy</t>
+  </si>
+  <si>
+    <t>sexxo uno domain recently registered namecheap com please check back later sexxo uno copyright rights reserved privacy policy</t>
+  </si>
+  <si>
+    <t>best dating worldwide warning see nude photos horny milfs moms please discreet ok must follow rules given see someone know publicize spread rumors sex one members responsibility protect stds respect sexual desires members members normal men women pornstars prostitutes agree</t>
+  </si>
+  <si>
+    <t>makinglove uno domain recently registered namecheap com please check back later makinglove uno copyright rights reserved privacy policy</t>
+  </si>
+  <si>
+    <t>popular dating site monthunsubscribeadult onlyreport abusewarning show list photos women live near ready sex right need ask quick questions continuequestion 1many women desperate single moms cheating wives looking fun could neighbors someone know agree keep identity women secret noyesquestion 2these women asked us allow men seeking relationship desire quick sex dating agree request noyesquestion 3are least years old women requested let younger contact past rude behavior younger men noyesthank may see list photos women area please keep identity secret click continue button search basis answers continue</t>
+  </si>
+  <si>
+    <t>popular dating site monthunsubscribeadult onlyreport abusegirls nearby warning show list photos women live near ready sex right need ask quick questions continuequestion 1many women desperate single moms cheating wives looking fun could neighbors someone know agree keep identity women secret noyesquestion 2these women asked us allow men seeking relationship desire quick sex dating agree request noyesquestion 3are least years old women requested let younger contact past rude behavior younger men noyesthank may see list photos women area please keep identity secret click continue button search basis answers continue</t>
+  </si>
+  <si>
+    <t>toples uno domain recently registered namecheap com please check back later toples uno copyright rights reserved privacy policy</t>
+  </si>
+  <si>
+    <t>starmovies uno domain recently registered namecheap com please check back later starmovies uno copyright rights reserved privacy policy</t>
+  </si>
+  <si>
+    <t>girlforyou uno domain recently registered namecheap com please check back later girlforyou uno copyright rights reserved privacy policy</t>
+  </si>
+  <si>
+    <t>twitch</t>
+  </si>
+  <si>
+    <t>found x000d found resource requested could found server</t>
+  </si>
+  <si>
+    <t>found x000d found x000d resource requested could found server</t>
+  </si>
+  <si>
+    <t>age verification yes</t>
+  </si>
+  <si>
+    <t>youtubeaboutpresscopyrightcontact uscreatorsadvertisedeveloperstermsprivacypolicy safetyhow youtube workstest new features(c) google llc</t>
+  </si>
+  <si>
+    <t>- sexy nude girls hi ' squirty let' build unique dating experience start clicking start confirm ' flirt chat naughty chat girls service play control get perfect match area private show go private model facebook f twitter instagram pinterest google plus g get movies club (c) rights reserved</t>
+  </si>
+  <si>
+    <t>link found</t>
+  </si>
+  <si>
+    <t>apache http server test page powered centos testing page used test proper operation apache http server installed read page means site working properly server powered centos visiting website visited either experiencing problems undergoing routine maintenance would like let administrators website know seen page instead page expected send e mail general mail sent name webmaster directed website domain reach appropriate person example experienced problems visiting www example com send e mail webmaster example com administrator add website content directory var www html prevent page ever used follow instructions file etc httpd conf welcome conf promoting apache centos free use images apache centos linux powered http servers thanks using apache centos important note centos project nothing website content provides software makes website run issues content site contact owner domain centos project unless intended visit centos org centos project anything website content lack example website www example com would find owner example com domain following whois server http www internic net whois html centos project centos linux distribution stable predictable manageable reproduceable platform derived sources red hat enterprise linux rhel additionally popular choice web hosting centos also provides rich platform open source communities build upon information please visit centos website</t>
+  </si>
+  <si>
+    <t>sweetgirls uno domain recently registered namecheap com please check back later sweetgirls uno copyright rights reserved privacy policy</t>
+  </si>
+  <si>
+    <t>olivia cancel update cart buy continue shopping promo code cancel apply olivia Da Ren Xiang kenoZui Xin kontentsu 17Nian Yi Shang nomi view continue made</t>
+  </si>
+  <si>
+    <t>rezeki beranda langganan postingan atom</t>
+  </si>
+  <si>
+    <t>loading loading</t>
+  </si>
+  <si>
+    <t>link unavailable</t>
+  </si>
+  <si>
+    <t>dulkaclep jk beranda langganan postingan atom</t>
+  </si>
+  <si>
+    <t>newsonyejin beranda langganan postingan atom</t>
+  </si>
+  <si>
+    <t>popular dating site monthadult onlyreport abusegirls nearby warning show list photos women live near ready sex right need ask quick questions continuequestion 1many women desperate single moms cheating wives looking fun could neighbors someone know agree keep identity women secret noyesquestion 2these women asked us allow men seeking relationship desire quick sex dating agree request noyesquestion 3are least years old women requested let younger contact past rude behavior younger men noyesthank may see list photos women area please keep identity secret click continue button search basis answers continue</t>
   </si>
   <si>
     <t>[]</t>
@@ -1621,8 +1024,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1698,6 +1101,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1744,7 +1155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1776,9 +1187,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1810,6 +1239,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1985,14 +1432,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E348"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="49.1640625" customWidth="1"/>
+    <col min="3" max="3" width="50.1640625" customWidth="1"/>
+    <col min="4" max="4" width="124.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2006,7 +1460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2020,10 +1474,10 @@
         <v>301</v>
       </c>
       <c r="E2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2034,13 +1488,13 @@
         <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -2051,13 +1505,13 @@
         <v>170</v>
       </c>
       <c r="D4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>15</v>
       </c>
@@ -2068,13 +1522,13 @@
         <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>25</v>
       </c>
@@ -2085,10 +1539,10 @@
         <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>27</v>
       </c>
@@ -2099,10 +1553,10 @@
         <v>171</v>
       </c>
       <c r="E7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>29</v>
       </c>
@@ -2113,10 +1567,10 @@
         <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>31</v>
       </c>
@@ -2127,13 +1581,13 @@
         <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>33</v>
       </c>
@@ -2144,13 +1598,13 @@
         <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>34</v>
       </c>
@@ -2161,13 +1615,13 @@
         <v>174</v>
       </c>
       <c r="D11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E11" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>51</v>
       </c>
@@ -2178,13 +1632,13 @@
         <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>52</v>
       </c>
@@ -2195,13 +1649,13 @@
         <v>176</v>
       </c>
       <c r="D13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E13" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>61</v>
       </c>
@@ -2212,13 +1666,13 @@
         <v>177</v>
       </c>
       <c r="D14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E14" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>64</v>
       </c>
@@ -2229,13 +1683,13 @@
         <v>177</v>
       </c>
       <c r="D15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>67</v>
       </c>
@@ -2246,13 +1700,13 @@
         <v>177</v>
       </c>
       <c r="D16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>70</v>
       </c>
@@ -2263,13 +1717,13 @@
         <v>177</v>
       </c>
       <c r="D17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E17" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>72</v>
       </c>
@@ -2280,13 +1734,13 @@
         <v>178</v>
       </c>
       <c r="D18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E18" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>73</v>
       </c>
@@ -2297,13 +1751,13 @@
         <v>179</v>
       </c>
       <c r="D19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E19" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>74</v>
       </c>
@@ -2314,13 +1768,13 @@
         <v>180</v>
       </c>
       <c r="D20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E20" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>82</v>
       </c>
@@ -2331,13 +1785,13 @@
         <v>181</v>
       </c>
       <c r="D21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E21" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>83</v>
       </c>
@@ -2348,13 +1802,13 @@
         <v>182</v>
       </c>
       <c r="D22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E22" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>84</v>
       </c>
@@ -2365,13 +1819,13 @@
         <v>183</v>
       </c>
       <c r="D23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>85</v>
       </c>
@@ -2382,13 +1836,13 @@
         <v>184</v>
       </c>
       <c r="D24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E24" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>86</v>
       </c>
@@ -2399,13 +1853,13 @@
         <v>185</v>
       </c>
       <c r="D25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E25" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>88</v>
       </c>
@@ -2416,13 +1870,13 @@
         <v>186</v>
       </c>
       <c r="D26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E26" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>90</v>
       </c>
@@ -2433,13 +1887,13 @@
         <v>187</v>
       </c>
       <c r="D27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E27" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>104</v>
       </c>
@@ -2450,13 +1904,13 @@
         <v>184</v>
       </c>
       <c r="D28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E28" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>105</v>
       </c>
@@ -2467,13 +1921,13 @@
         <v>188</v>
       </c>
       <c r="D29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E29" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>107</v>
       </c>
@@ -2484,13 +1938,13 @@
         <v>189</v>
       </c>
       <c r="D30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E30" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>108</v>
       </c>
@@ -2501,10 +1955,10 @@
         <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>110</v>
       </c>
@@ -2515,13 +1969,13 @@
         <v>191</v>
       </c>
       <c r="D32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E32" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>113</v>
       </c>
@@ -2532,13 +1986,13 @@
         <v>192</v>
       </c>
       <c r="D33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E33" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>114</v>
       </c>
@@ -2549,13 +2003,13 @@
         <v>184</v>
       </c>
       <c r="D34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E34" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>115</v>
       </c>
@@ -2566,13 +2020,13 @@
         <v>193</v>
       </c>
       <c r="D35" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E35" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>116</v>
       </c>
@@ -2583,13 +2037,13 @@
         <v>193</v>
       </c>
       <c r="D36" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E36" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>117</v>
       </c>
@@ -2600,13 +2054,13 @@
         <v>194</v>
       </c>
       <c r="D37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E37" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>118</v>
       </c>
@@ -2617,13 +2071,13 @@
         <v>195</v>
       </c>
       <c r="D38" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E38" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>119</v>
       </c>
@@ -2634,13 +2088,13 @@
         <v>196</v>
       </c>
       <c r="D39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E39" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>120</v>
       </c>
@@ -2651,13 +2105,13 @@
         <v>192</v>
       </c>
       <c r="D40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E40" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>121</v>
       </c>
@@ -2668,10 +2122,10 @@
         <v>197</v>
       </c>
       <c r="E41" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>122</v>
       </c>
@@ -2682,10 +2136,10 @@
         <v>198</v>
       </c>
       <c r="E42" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>148</v>
       </c>
@@ -2696,13 +2150,13 @@
         <v>185</v>
       </c>
       <c r="D43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E43" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>154</v>
       </c>
@@ -2713,13 +2167,13 @@
         <v>199</v>
       </c>
       <c r="D44" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E44" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>161</v>
       </c>
@@ -2730,13 +2184,13 @@
         <v>175</v>
       </c>
       <c r="D45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E45" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>162</v>
       </c>
@@ -2747,13 +2201,13 @@
         <v>200</v>
       </c>
       <c r="D46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E46" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>163</v>
       </c>
@@ -2764,13 +2218,13 @@
         <v>176</v>
       </c>
       <c r="D47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E47" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>164</v>
       </c>
@@ -2781,13 +2235,13 @@
         <v>175</v>
       </c>
       <c r="D48" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E48" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>165</v>
       </c>
@@ -2798,13 +2252,13 @@
         <v>201</v>
       </c>
       <c r="D49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E49" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>166</v>
       </c>
@@ -2815,13 +2269,13 @@
         <v>202</v>
       </c>
       <c r="D50" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E50" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>167</v>
       </c>
@@ -2832,10 +2286,10 @@
         <v>203</v>
       </c>
       <c r="E51" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>199</v>
       </c>
@@ -2846,13 +2300,13 @@
         <v>195</v>
       </c>
       <c r="D52" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E52" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>206</v>
       </c>
@@ -2863,13 +2317,13 @@
         <v>204</v>
       </c>
       <c r="D53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E53" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>231</v>
       </c>
@@ -2880,13 +2334,13 @@
         <v>205</v>
       </c>
       <c r="D54" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E54" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>256</v>
       </c>
@@ -2897,13 +2351,13 @@
         <v>181</v>
       </c>
       <c r="D55" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E55" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>257</v>
       </c>
@@ -2914,13 +2368,13 @@
         <v>206</v>
       </c>
       <c r="D56" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E56" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>289</v>
       </c>
@@ -2931,13 +2385,13 @@
         <v>207</v>
       </c>
       <c r="D57" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E57" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>300</v>
       </c>
@@ -2948,10 +2402,10 @@
         <v>208</v>
       </c>
       <c r="E58" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>301</v>
       </c>
@@ -2962,10 +2416,10 @@
         <v>208</v>
       </c>
       <c r="E59" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>315</v>
       </c>
@@ -2976,13 +2430,13 @@
         <v>209</v>
       </c>
       <c r="D60" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E60" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>316</v>
       </c>
@@ -2993,13 +2447,13 @@
         <v>209</v>
       </c>
       <c r="D61" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E61" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>341</v>
       </c>
@@ -3010,13 +2464,13 @@
         <v>175</v>
       </c>
       <c r="D62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E62" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>342</v>
       </c>
@@ -3027,13 +2481,13 @@
         <v>210</v>
       </c>
       <c r="D63" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E63" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>343</v>
       </c>
@@ -3044,10 +2498,10 @@
         <v>211</v>
       </c>
       <c r="E64" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>368</v>
       </c>
@@ -3058,13 +2512,13 @@
         <v>204</v>
       </c>
       <c r="D65" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E65" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>393</v>
       </c>
@@ -3075,10 +2529,10 @@
         <v>212</v>
       </c>
       <c r="E66" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>395</v>
       </c>
@@ -3089,13 +2543,13 @@
         <v>213</v>
       </c>
       <c r="D67" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E67" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>396</v>
       </c>
@@ -3106,13 +2560,13 @@
         <v>214</v>
       </c>
       <c r="D68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E68" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>422</v>
       </c>
@@ -3123,13 +2577,13 @@
         <v>213</v>
       </c>
       <c r="D69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E69" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>423</v>
       </c>
@@ -3140,13 +2594,13 @@
         <v>214</v>
       </c>
       <c r="D70" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E70" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>451</v>
       </c>
@@ -3157,13 +2611,13 @@
         <v>191</v>
       </c>
       <c r="D71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E71" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>477</v>
       </c>
@@ -3174,10 +2628,10 @@
         <v>215</v>
       </c>
       <c r="E72" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>478</v>
       </c>
@@ -3188,13 +2642,13 @@
         <v>216</v>
       </c>
       <c r="D73" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E73" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>504</v>
       </c>
@@ -3205,13 +2659,13 @@
         <v>217</v>
       </c>
       <c r="D74" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E74" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>529</v>
       </c>
@@ -3222,13 +2676,13 @@
         <v>217</v>
       </c>
       <c r="D75" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E75" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>554</v>
       </c>
@@ -3239,13 +2693,13 @@
         <v>217</v>
       </c>
       <c r="D76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E76" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>580</v>
       </c>
@@ -3256,13 +2710,13 @@
         <v>218</v>
       </c>
       <c r="D77" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E77" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>587</v>
       </c>
@@ -3273,13 +2727,13 @@
         <v>219</v>
       </c>
       <c r="D78" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E78" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>595</v>
       </c>
@@ -3290,13 +2744,13 @@
         <v>220</v>
       </c>
       <c r="D79" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="E79" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>597</v>
       </c>
@@ -3307,13 +2761,13 @@
         <v>186</v>
       </c>
       <c r="D80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E80" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>623</v>
       </c>
@@ -3324,13 +2778,13 @@
         <v>221</v>
       </c>
       <c r="D81" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E81" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>637</v>
       </c>
@@ -3341,13 +2795,13 @@
         <v>204</v>
       </c>
       <c r="D82" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E82" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>639</v>
       </c>
@@ -3358,10 +2812,10 @@
         <v>222</v>
       </c>
       <c r="E83" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>640</v>
       </c>
@@ -3372,10 +2826,10 @@
         <v>223</v>
       </c>
       <c r="E84" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>656</v>
       </c>
@@ -3386,10 +2840,10 @@
         <v>222</v>
       </c>
       <c r="E85" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>657</v>
       </c>
@@ -3400,10 +2854,10 @@
         <v>223</v>
       </c>
       <c r="E86" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>673</v>
       </c>
@@ -3414,10 +2868,10 @@
         <v>224</v>
       </c>
       <c r="E87" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>674</v>
       </c>
@@ -3428,10 +2882,10 @@
         <v>225</v>
       </c>
       <c r="E88" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>690</v>
       </c>
@@ -3442,10 +2896,10 @@
         <v>224</v>
       </c>
       <c r="E89" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>691</v>
       </c>
@@ -3456,10 +2910,10 @@
         <v>225</v>
       </c>
       <c r="E90" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>707</v>
       </c>
@@ -3470,10 +2924,10 @@
         <v>224</v>
       </c>
       <c r="E91" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>708</v>
       </c>
@@ -3484,10 +2938,10 @@
         <v>225</v>
       </c>
       <c r="E92" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>724</v>
       </c>
@@ -3498,10 +2952,10 @@
         <v>224</v>
       </c>
       <c r="E93" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>725</v>
       </c>
@@ -3512,10 +2966,10 @@
         <v>225</v>
       </c>
       <c r="E94" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>741</v>
       </c>
@@ -3526,10 +2980,10 @@
         <v>224</v>
       </c>
       <c r="E95" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>742</v>
       </c>
@@ -3540,10 +2994,10 @@
         <v>225</v>
       </c>
       <c r="E96" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>758</v>
       </c>
@@ -3553,14 +3007,11 @@
       <c r="C97" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D97" t="s">
-        <v>319</v>
-      </c>
       <c r="E97" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>759</v>
       </c>
@@ -3571,13 +3022,13 @@
         <v>169</v>
       </c>
       <c r="D98" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E98" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>791</v>
       </c>
@@ -3587,14 +3038,11 @@
       <c r="C99" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D99" t="s">
-        <v>319</v>
-      </c>
       <c r="E99" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>792</v>
       </c>
@@ -3605,10 +3053,10 @@
         <v>228</v>
       </c>
       <c r="E100" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>808</v>
       </c>
@@ -3618,14 +3066,11 @@
       <c r="C101" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D101" t="s">
-        <v>319</v>
-      </c>
       <c r="E101" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>809</v>
       </c>
@@ -3636,10 +3081,10 @@
         <v>228</v>
       </c>
       <c r="E102" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>825</v>
       </c>
@@ -3649,14 +3094,11 @@
       <c r="C103" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D103" t="s">
-        <v>319</v>
-      </c>
       <c r="E103" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>826</v>
       </c>
@@ -3667,10 +3109,10 @@
         <v>228</v>
       </c>
       <c r="E104" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>842</v>
       </c>
@@ -3680,14 +3122,11 @@
       <c r="C105" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D105" t="s">
-        <v>319</v>
-      </c>
       <c r="E105" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>843</v>
       </c>
@@ -3698,10 +3137,10 @@
         <v>228</v>
       </c>
       <c r="E106" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>859</v>
       </c>
@@ -3711,14 +3150,11 @@
       <c r="C107" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D107" t="s">
-        <v>319</v>
-      </c>
       <c r="E107" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>860</v>
       </c>
@@ -3729,10 +3165,10 @@
         <v>228</v>
       </c>
       <c r="E108" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>876</v>
       </c>
@@ -3742,14 +3178,11 @@
       <c r="C109" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D109" t="s">
-        <v>319</v>
-      </c>
       <c r="E109" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>877</v>
       </c>
@@ -3760,10 +3193,10 @@
         <v>228</v>
       </c>
       <c r="E110" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>893</v>
       </c>
@@ -3773,14 +3206,11 @@
       <c r="C111" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D111" t="s">
-        <v>319</v>
-      </c>
       <c r="E111" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>894</v>
       </c>
@@ -3791,10 +3221,10 @@
         <v>228</v>
       </c>
       <c r="E112" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>913</v>
       </c>
@@ -3805,10 +3235,10 @@
         <v>229</v>
       </c>
       <c r="E113" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>915</v>
       </c>
@@ -3819,10 +3249,10 @@
         <v>230</v>
       </c>
       <c r="E114" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>917</v>
       </c>
@@ -3833,13 +3263,13 @@
         <v>200</v>
       </c>
       <c r="D115" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E115" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>953</v>
       </c>
@@ -3850,13 +3280,13 @@
         <v>231</v>
       </c>
       <c r="D116" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E116" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>962</v>
       </c>
@@ -3867,13 +3297,13 @@
         <v>219</v>
       </c>
       <c r="D117" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E117" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>969</v>
       </c>
@@ -3884,10 +3314,10 @@
         <v>232</v>
       </c>
       <c r="E118" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>971</v>
       </c>
@@ -3898,10 +3328,10 @@
         <v>233</v>
       </c>
       <c r="E119" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>972</v>
       </c>
@@ -3912,13 +3342,13 @@
         <v>234</v>
       </c>
       <c r="D120" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E120" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>979</v>
       </c>
@@ -3929,13 +3359,13 @@
         <v>235</v>
       </c>
       <c r="D121" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E121" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>1008</v>
       </c>
@@ -3946,13 +3376,13 @@
         <v>194</v>
       </c>
       <c r="D122" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E122" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>1019</v>
       </c>
@@ -3963,13 +3393,13 @@
         <v>236</v>
       </c>
       <c r="D123" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E123" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>1020</v>
       </c>
@@ -3980,13 +3410,13 @@
         <v>236</v>
       </c>
       <c r="D124" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E124" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>1026</v>
       </c>
@@ -3997,13 +3427,13 @@
         <v>186</v>
       </c>
       <c r="D125" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E125" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>1040</v>
       </c>
@@ -4014,13 +3444,13 @@
         <v>179</v>
       </c>
       <c r="D126" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E126" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>1044</v>
       </c>
@@ -4031,13 +3461,13 @@
         <v>216</v>
       </c>
       <c r="D127" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E127" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>1058</v>
       </c>
@@ -4048,13 +3478,13 @@
         <v>237</v>
       </c>
       <c r="D128" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E128" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>1070</v>
       </c>
@@ -4065,13 +3495,13 @@
         <v>169</v>
       </c>
       <c r="D129" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E129" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>1085</v>
       </c>
@@ -4082,13 +3512,13 @@
         <v>237</v>
       </c>
       <c r="D130" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E130" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>1096</v>
       </c>
@@ -4099,10 +3529,10 @@
         <v>238</v>
       </c>
       <c r="E131" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>1097</v>
       </c>
@@ -4113,13 +3543,13 @@
         <v>237</v>
       </c>
       <c r="D132" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E132" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>1108</v>
       </c>
@@ -4130,13 +3560,13 @@
         <v>237</v>
       </c>
       <c r="D133" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E133" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>1119</v>
       </c>
@@ -4147,13 +3577,13 @@
         <v>219</v>
       </c>
       <c r="D134" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E134" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>1126</v>
       </c>
@@ -4164,13 +3594,13 @@
         <v>239</v>
       </c>
       <c r="D135" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E135" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>1127</v>
       </c>
@@ -4181,13 +3611,13 @@
         <v>239</v>
       </c>
       <c r="D136" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E136" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>1141</v>
       </c>
@@ -4198,13 +3628,13 @@
         <v>239</v>
       </c>
       <c r="D137" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E137" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>1142</v>
       </c>
@@ -4215,13 +3645,13 @@
         <v>239</v>
       </c>
       <c r="D138" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E138" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>1158</v>
       </c>
@@ -4232,13 +3662,13 @@
         <v>240</v>
       </c>
       <c r="D139" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E139" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>1159</v>
       </c>
@@ -4249,13 +3679,13 @@
         <v>240</v>
       </c>
       <c r="D140" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E140" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>1173</v>
       </c>
@@ -4266,13 +3696,13 @@
         <v>241</v>
       </c>
       <c r="D141" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E141" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>1174</v>
       </c>
@@ -4283,13 +3713,13 @@
         <v>237</v>
       </c>
       <c r="D142" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E142" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>1175</v>
       </c>
@@ -4300,13 +3730,13 @@
         <v>242</v>
       </c>
       <c r="D143" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E143" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>1176</v>
       </c>
@@ -4317,13 +3747,13 @@
         <v>242</v>
       </c>
       <c r="D144" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E144" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>1193</v>
       </c>
@@ -4334,13 +3764,13 @@
         <v>243</v>
       </c>
       <c r="D145" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E145" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>1194</v>
       </c>
@@ -4351,13 +3781,13 @@
         <v>244</v>
       </c>
       <c r="D146" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E146" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>1223</v>
       </c>
@@ -4368,13 +3798,13 @@
         <v>245</v>
       </c>
       <c r="D147" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E147" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>1224</v>
       </c>
@@ -4385,13 +3815,13 @@
         <v>245</v>
       </c>
       <c r="D148" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E148" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>1240</v>
       </c>
@@ -4402,13 +3832,13 @@
         <v>245</v>
       </c>
       <c r="D149" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E149" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>1241</v>
       </c>
@@ -4419,13 +3849,13 @@
         <v>245</v>
       </c>
       <c r="D150" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E150" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>1257</v>
       </c>
@@ -4436,10 +3866,10 @@
         <v>246</v>
       </c>
       <c r="E151" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>1259</v>
       </c>
@@ -4450,13 +3880,13 @@
         <v>183</v>
       </c>
       <c r="D152" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E152" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>1266</v>
       </c>
@@ -4467,13 +3897,13 @@
         <v>182</v>
       </c>
       <c r="D153" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E153" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>1267</v>
       </c>
@@ -4484,13 +3914,13 @@
         <v>204</v>
       </c>
       <c r="D154" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E154" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>1268</v>
       </c>
@@ -4501,13 +3931,13 @@
         <v>247</v>
       </c>
       <c r="D155" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E155" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>1284</v>
       </c>
@@ -4518,13 +3948,13 @@
         <v>248</v>
       </c>
       <c r="D156" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E156" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>1291</v>
       </c>
@@ -4535,13 +3965,13 @@
         <v>249</v>
       </c>
       <c r="D157" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E157" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>1292</v>
       </c>
@@ -4552,13 +3982,13 @@
         <v>249</v>
       </c>
       <c r="D158" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E158" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>1306</v>
       </c>
@@ -4569,13 +3999,13 @@
         <v>250</v>
       </c>
       <c r="D159" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E159" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>1307</v>
       </c>
@@ -4586,13 +4016,13 @@
         <v>249</v>
       </c>
       <c r="D160" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E160" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>1308</v>
       </c>
@@ -4603,13 +4033,13 @@
         <v>249</v>
       </c>
       <c r="D161" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E161" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>1322</v>
       </c>
@@ -4620,13 +4050,13 @@
         <v>249</v>
       </c>
       <c r="D162" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E162" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>1323</v>
       </c>
@@ -4637,13 +4067,13 @@
         <v>249</v>
       </c>
       <c r="D163" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E163" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>1337</v>
       </c>
@@ -4654,13 +4084,13 @@
         <v>249</v>
       </c>
       <c r="D164" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E164" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>1338</v>
       </c>
@@ -4671,13 +4101,13 @@
         <v>249</v>
       </c>
       <c r="D165" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E165" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>1352</v>
       </c>
@@ -4688,13 +4118,13 @@
         <v>249</v>
       </c>
       <c r="D166" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E166" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>1353</v>
       </c>
@@ -4705,13 +4135,13 @@
         <v>249</v>
       </c>
       <c r="D167" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E167" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>1367</v>
       </c>
@@ -4722,13 +4152,13 @@
         <v>249</v>
       </c>
       <c r="D168" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E168" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>1368</v>
       </c>
@@ -4739,13 +4169,13 @@
         <v>249</v>
       </c>
       <c r="D169" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E169" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>1382</v>
       </c>
@@ -4756,13 +4186,13 @@
         <v>249</v>
       </c>
       <c r="D170" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E170" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>1383</v>
       </c>
@@ -4773,13 +4203,13 @@
         <v>249</v>
       </c>
       <c r="D171" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>1397</v>
       </c>
@@ -4790,13 +4220,13 @@
         <v>251</v>
       </c>
       <c r="D172" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>1398</v>
       </c>
@@ -4807,13 +4237,13 @@
         <v>251</v>
       </c>
       <c r="D173" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>1417</v>
       </c>
@@ -4824,13 +4254,13 @@
         <v>252</v>
       </c>
       <c r="D174" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>1435</v>
       </c>
@@ -4841,13 +4271,13 @@
         <v>252</v>
       </c>
       <c r="D175" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>1453</v>
       </c>
@@ -4858,13 +4288,13 @@
         <v>175</v>
       </c>
       <c r="D176" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E176" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>1485</v>
       </c>
@@ -4875,13 +4305,13 @@
         <v>207</v>
       </c>
       <c r="D177" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>1496</v>
       </c>
@@ -4892,13 +4322,13 @@
         <v>184</v>
       </c>
       <c r="D178" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>1521</v>
       </c>
@@ -4909,13 +4339,13 @@
         <v>253</v>
       </c>
       <c r="D179" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E179" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>1522</v>
       </c>
@@ -4926,10 +4356,10 @@
         <v>254</v>
       </c>
       <c r="E180" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>1538</v>
       </c>
@@ -4940,13 +4370,13 @@
         <v>253</v>
       </c>
       <c r="D181" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E181" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>1539</v>
       </c>
@@ -4957,10 +4387,10 @@
         <v>254</v>
       </c>
       <c r="E182" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>1555</v>
       </c>
@@ -4971,13 +4401,13 @@
         <v>194</v>
       </c>
       <c r="D183" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E183" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>1580</v>
       </c>
@@ -4988,13 +4418,13 @@
         <v>181</v>
       </c>
       <c r="D184" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E184" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>1588</v>
       </c>
@@ -5005,13 +4435,13 @@
         <v>204</v>
       </c>
       <c r="D185" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E185" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>1613</v>
       </c>
@@ -5022,13 +4452,13 @@
         <v>186</v>
       </c>
       <c r="D186" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E186" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>1619</v>
       </c>
@@ -5039,13 +4469,13 @@
         <v>219</v>
       </c>
       <c r="D187" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E187" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>1651</v>
       </c>
@@ -5056,13 +4486,13 @@
         <v>213</v>
       </c>
       <c r="D188" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E188" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>1652</v>
       </c>
@@ -5073,13 +4503,13 @@
         <v>214</v>
       </c>
       <c r="D189" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E189" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>1678</v>
       </c>
@@ -5090,13 +4520,13 @@
         <v>213</v>
       </c>
       <c r="D190" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E190" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>1679</v>
       </c>
@@ -5107,13 +4537,13 @@
         <v>214</v>
       </c>
       <c r="D191" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E191" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>1706</v>
       </c>
@@ -5124,13 +4554,13 @@
         <v>186</v>
       </c>
       <c r="D192" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E192" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>1735</v>
       </c>
@@ -5141,13 +4571,13 @@
         <v>179</v>
       </c>
       <c r="D193" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E193" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>1748</v>
       </c>
@@ -5158,10 +4588,10 @@
         <v>255</v>
       </c>
       <c r="E194" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>1749</v>
       </c>
@@ -5172,10 +4602,10 @@
         <v>255</v>
       </c>
       <c r="E195" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>1783</v>
       </c>
@@ -5186,13 +4616,13 @@
         <v>196</v>
       </c>
       <c r="D196" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E196" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>1784</v>
       </c>
@@ -5203,13 +4633,13 @@
         <v>219</v>
       </c>
       <c r="D197" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E197" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>1791</v>
       </c>
@@ -5220,13 +4650,13 @@
         <v>245</v>
       </c>
       <c r="D198" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E198" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>1792</v>
       </c>
@@ -5237,13 +4667,13 @@
         <v>245</v>
       </c>
       <c r="D199" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E199" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>1808</v>
       </c>
@@ -5254,13 +4684,13 @@
         <v>245</v>
       </c>
       <c r="D200" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E200" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>1809</v>
       </c>
@@ -5271,13 +4701,13 @@
         <v>245</v>
       </c>
       <c r="D201" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E201" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>1825</v>
       </c>
@@ -5288,13 +4718,13 @@
         <v>220</v>
       </c>
       <c r="D202" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="E202" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>1826</v>
       </c>
@@ -5305,13 +4735,13 @@
         <v>194</v>
       </c>
       <c r="D203" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E203" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>1833</v>
       </c>
@@ -5322,13 +4752,13 @@
         <v>256</v>
       </c>
       <c r="D204" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E204" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>1859</v>
       </c>
@@ -5339,13 +4769,13 @@
         <v>221</v>
       </c>
       <c r="D205" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E205" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>1870</v>
       </c>
@@ -5356,13 +4786,13 @@
         <v>256</v>
       </c>
       <c r="D206" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E206" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>1877</v>
       </c>
@@ -5373,13 +4803,13 @@
         <v>194</v>
       </c>
       <c r="D207" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E207" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>1884</v>
       </c>
@@ -5390,13 +4820,13 @@
         <v>204</v>
       </c>
       <c r="D208" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E208" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>1914</v>
       </c>
@@ -5407,10 +4837,10 @@
         <v>222</v>
       </c>
       <c r="E209" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>1915</v>
       </c>
@@ -5421,10 +4851,10 @@
         <v>223</v>
       </c>
       <c r="E210" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>1931</v>
       </c>
@@ -5435,10 +4865,10 @@
         <v>222</v>
       </c>
       <c r="E211" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>1932</v>
       </c>
@@ -5449,10 +4879,10 @@
         <v>223</v>
       </c>
       <c r="E212" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>1948</v>
       </c>
@@ -5462,14 +4892,11 @@
       <c r="C213" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D213" t="s">
-        <v>319</v>
-      </c>
       <c r="E213" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>1949</v>
       </c>
@@ -5480,10 +4907,10 @@
         <v>228</v>
       </c>
       <c r="E214" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>1965</v>
       </c>
@@ -5493,14 +4920,11 @@
       <c r="C215" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D215" t="s">
-        <v>319</v>
-      </c>
       <c r="E215" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>1966</v>
       </c>
@@ -5511,10 +4935,10 @@
         <v>228</v>
       </c>
       <c r="E216" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>1982</v>
       </c>
@@ -5524,14 +4948,11 @@
       <c r="C217" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D217" t="s">
-        <v>319</v>
-      </c>
       <c r="E217" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>1983</v>
       </c>
@@ -5542,10 +4963,10 @@
         <v>228</v>
       </c>
       <c r="E218" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>1999</v>
       </c>
@@ -5555,14 +4976,11 @@
       <c r="C219" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D219" t="s">
-        <v>319</v>
-      </c>
       <c r="E219" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>2000</v>
       </c>
@@ -5573,10 +4991,10 @@
         <v>228</v>
       </c>
       <c r="E220" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>2016</v>
       </c>
@@ -5586,14 +5004,11 @@
       <c r="C221" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D221" t="s">
-        <v>319</v>
-      </c>
       <c r="E221" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>2017</v>
       </c>
@@ -5604,10 +5019,10 @@
         <v>228</v>
       </c>
       <c r="E222" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>2035</v>
       </c>
@@ -5618,10 +5033,10 @@
         <v>257</v>
       </c>
       <c r="E223" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>2036</v>
       </c>
@@ -5632,13 +5047,13 @@
         <v>258</v>
       </c>
       <c r="D224" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E224" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>2037</v>
       </c>
@@ -5649,13 +5064,13 @@
         <v>259</v>
       </c>
       <c r="D225" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E225" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>2039</v>
       </c>
@@ -5666,13 +5081,13 @@
         <v>194</v>
       </c>
       <c r="D226" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E226" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>2049</v>
       </c>
@@ -5683,13 +5098,13 @@
         <v>175</v>
       </c>
       <c r="D227" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E227" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>2050</v>
       </c>
@@ -5700,13 +5115,13 @@
         <v>216</v>
       </c>
       <c r="D228" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E228" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>2064</v>
       </c>
@@ -5717,13 +5132,13 @@
         <v>182</v>
       </c>
       <c r="D229" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E229" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>2070</v>
       </c>
@@ -5734,13 +5149,13 @@
         <v>260</v>
       </c>
       <c r="D230" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E230" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>2071</v>
       </c>
@@ -5751,13 +5166,13 @@
         <v>260</v>
       </c>
       <c r="D231" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E231" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>2085</v>
       </c>
@@ -5768,13 +5183,13 @@
         <v>260</v>
       </c>
       <c r="D232" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E232" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>2086</v>
       </c>
@@ -5785,13 +5200,13 @@
         <v>260</v>
       </c>
       <c r="D233" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E233" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>2100</v>
       </c>
@@ -5802,13 +5217,13 @@
         <v>237</v>
       </c>
       <c r="D234" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E234" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>2113</v>
       </c>
@@ -5819,13 +5234,13 @@
         <v>237</v>
       </c>
       <c r="D235" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E235" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>2124</v>
       </c>
@@ -5836,13 +5251,13 @@
         <v>175</v>
       </c>
       <c r="D236" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E236" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>2125</v>
       </c>
@@ -5853,13 +5268,13 @@
         <v>231</v>
       </c>
       <c r="D237" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E237" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>2133</v>
       </c>
@@ -5870,13 +5285,13 @@
         <v>186</v>
       </c>
       <c r="D238" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E238" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>2147</v>
       </c>
@@ -5887,13 +5302,13 @@
         <v>205</v>
       </c>
       <c r="D239" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E239" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>2161</v>
       </c>
@@ -5904,13 +5319,13 @@
         <v>261</v>
       </c>
       <c r="D240" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E240" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>2175</v>
       </c>
@@ -5921,13 +5336,13 @@
         <v>242</v>
       </c>
       <c r="D241" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E241" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>2176</v>
       </c>
@@ -5938,13 +5353,13 @@
         <v>242</v>
       </c>
       <c r="D242" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E242" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>2192</v>
       </c>
@@ -5955,13 +5370,13 @@
         <v>234</v>
       </c>
       <c r="D243" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E243" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>2193</v>
       </c>
@@ -5972,13 +5387,13 @@
         <v>262</v>
       </c>
       <c r="D244" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E244" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>2194</v>
       </c>
@@ -5989,13 +5404,13 @@
         <v>231</v>
       </c>
       <c r="D245" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E245" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>2201</v>
       </c>
@@ -6006,13 +5421,13 @@
         <v>242</v>
       </c>
       <c r="D246" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E246" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>2202</v>
       </c>
@@ -6023,13 +5438,13 @@
         <v>242</v>
       </c>
       <c r="D247" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E247" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>2216</v>
       </c>
@@ -6040,13 +5455,13 @@
         <v>263</v>
       </c>
       <c r="D248" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E248" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>2217</v>
       </c>
@@ -6057,13 +5472,13 @@
         <v>263</v>
       </c>
       <c r="D249" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E249" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>2231</v>
       </c>
@@ -6074,13 +5489,13 @@
         <v>264</v>
       </c>
       <c r="D250" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E250" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>2232</v>
       </c>
@@ -6091,13 +5506,13 @@
         <v>265</v>
       </c>
       <c r="D251" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E251" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>2233</v>
       </c>
@@ -6108,13 +5523,13 @@
         <v>196</v>
       </c>
       <c r="D252" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E252" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>2240</v>
       </c>
@@ -6125,10 +5540,10 @@
         <v>266</v>
       </c>
       <c r="E253" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>2241</v>
       </c>
@@ -6139,10 +5554,10 @@
         <v>267</v>
       </c>
       <c r="E254" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>2260</v>
       </c>
@@ -6153,10 +5568,10 @@
         <v>268</v>
       </c>
       <c r="E255" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>2261</v>
       </c>
@@ -6167,13 +5582,13 @@
         <v>269</v>
       </c>
       <c r="D256" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E256" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>2268</v>
       </c>
@@ -6184,13 +5599,13 @@
         <v>231</v>
       </c>
       <c r="D257" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E257" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>2275</v>
       </c>
@@ -6201,13 +5616,13 @@
         <v>265</v>
       </c>
       <c r="D258" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E258" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>2300</v>
       </c>
@@ -6218,13 +5633,13 @@
         <v>181</v>
       </c>
       <c r="D259" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E259" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>2301</v>
       </c>
@@ -6235,13 +5650,13 @@
         <v>270</v>
       </c>
       <c r="D260" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E260" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>2308</v>
       </c>
@@ -6252,13 +5667,13 @@
         <v>271</v>
       </c>
       <c r="D261" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E261" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>2315</v>
       </c>
@@ -6269,13 +5684,13 @@
         <v>272</v>
       </c>
       <c r="D262" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E262" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>2322</v>
       </c>
@@ -6286,13 +5701,13 @@
         <v>265</v>
       </c>
       <c r="D263" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E263" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>2347</v>
       </c>
@@ -6302,14 +5717,11 @@
       <c r="C264" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D264" t="s">
-        <v>319</v>
-      </c>
       <c r="E264" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>2348</v>
       </c>
@@ -6320,10 +5732,10 @@
         <v>228</v>
       </c>
       <c r="E265" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>2364</v>
       </c>
@@ -6333,14 +5745,11 @@
       <c r="C266" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D266" t="s">
-        <v>319</v>
-      </c>
       <c r="E266" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>2365</v>
       </c>
@@ -6351,10 +5760,10 @@
         <v>228</v>
       </c>
       <c r="E267" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>2381</v>
       </c>
@@ -6364,14 +5773,11 @@
       <c r="C268" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D268" t="s">
-        <v>319</v>
-      </c>
       <c r="E268" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>2382</v>
       </c>
@@ -6382,10 +5788,10 @@
         <v>228</v>
       </c>
       <c r="E269" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>2398</v>
       </c>
@@ -6395,14 +5801,11 @@
       <c r="C270" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D270" t="s">
-        <v>319</v>
-      </c>
       <c r="E270" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>2399</v>
       </c>
@@ -6413,10 +5816,10 @@
         <v>228</v>
       </c>
       <c r="E271" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>2415</v>
       </c>
@@ -6427,13 +5830,13 @@
         <v>273</v>
       </c>
       <c r="D272" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E272" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>2416</v>
       </c>
@@ -6444,13 +5847,13 @@
         <v>273</v>
       </c>
       <c r="D273" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E273" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>2432</v>
       </c>
@@ -6461,13 +5864,13 @@
         <v>175</v>
       </c>
       <c r="D274" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E274" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>2435</v>
       </c>
@@ -6478,13 +5881,13 @@
         <v>200</v>
       </c>
       <c r="D275" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E275" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>2467</v>
       </c>
@@ -6495,13 +5898,13 @@
         <v>265</v>
       </c>
       <c r="D276" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E276" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>2492</v>
       </c>
@@ -6512,13 +5915,13 @@
         <v>231</v>
       </c>
       <c r="D277" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E277" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>2499</v>
       </c>
@@ -6529,13 +5932,13 @@
         <v>231</v>
       </c>
       <c r="D278" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E278" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>2513</v>
       </c>
@@ -6546,13 +5949,13 @@
         <v>271</v>
       </c>
       <c r="D279" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E279" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>2525</v>
       </c>
@@ -6563,13 +5966,13 @@
         <v>272</v>
       </c>
       <c r="D280" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E280" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>2537</v>
       </c>
@@ -6580,13 +5983,13 @@
         <v>269</v>
       </c>
       <c r="D281" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E281" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>2544</v>
       </c>
@@ -6597,13 +6000,13 @@
         <v>196</v>
       </c>
       <c r="D282" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E282" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>2551</v>
       </c>
@@ -6614,10 +6017,10 @@
         <v>274</v>
       </c>
       <c r="E283" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>2552</v>
       </c>
@@ -6628,10 +6031,10 @@
         <v>275</v>
       </c>
       <c r="E284" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>2568</v>
       </c>
@@ -6642,13 +6045,13 @@
         <v>265</v>
       </c>
       <c r="D285" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E285" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>2593</v>
       </c>
@@ -6659,10 +6062,10 @@
         <v>255</v>
       </c>
       <c r="E286" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>2594</v>
       </c>
@@ -6673,10 +6076,10 @@
         <v>255</v>
       </c>
       <c r="E287" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>2626</v>
       </c>
@@ -6687,13 +6090,13 @@
         <v>181</v>
       </c>
       <c r="D288" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E288" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>2633</v>
       </c>
@@ -6704,13 +6107,13 @@
         <v>248</v>
       </c>
       <c r="D289" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E289" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>2658</v>
       </c>
@@ -6721,13 +6124,13 @@
         <v>276</v>
       </c>
       <c r="D290" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="E290" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>2660</v>
       </c>
@@ -6738,13 +6141,13 @@
         <v>173</v>
       </c>
       <c r="D291" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E291" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>2661</v>
       </c>
@@ -6755,13 +6158,13 @@
         <v>277</v>
       </c>
       <c r="D292" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E292" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>2668</v>
       </c>
@@ -6772,13 +6175,13 @@
         <v>277</v>
       </c>
       <c r="D293" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E293" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>2676</v>
       </c>
@@ -6789,13 +6192,13 @@
         <v>278</v>
       </c>
       <c r="D294" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E294" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>2682</v>
       </c>
@@ -6806,13 +6209,13 @@
         <v>196</v>
       </c>
       <c r="D295" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E295" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>2683</v>
       </c>
@@ -6823,13 +6226,13 @@
         <v>194</v>
       </c>
       <c r="D296" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E296" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>2684</v>
       </c>
@@ -6840,13 +6243,13 @@
         <v>279</v>
       </c>
       <c r="D297" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E297" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>2685</v>
       </c>
@@ -6857,13 +6260,13 @@
         <v>204</v>
       </c>
       <c r="D298" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E298" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>2686</v>
       </c>
@@ -6874,13 +6277,13 @@
         <v>185</v>
       </c>
       <c r="D299" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E299" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>2687</v>
       </c>
@@ -6891,13 +6294,13 @@
         <v>280</v>
       </c>
       <c r="D300" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E300" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>2689</v>
       </c>
@@ -6908,13 +6311,13 @@
         <v>184</v>
       </c>
       <c r="D301" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E301" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>2691</v>
       </c>
@@ -6925,13 +6328,13 @@
         <v>281</v>
       </c>
       <c r="D302" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E302" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>2697</v>
       </c>
@@ -6942,13 +6345,13 @@
         <v>180</v>
       </c>
       <c r="D303" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E303" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>2705</v>
       </c>
@@ -6959,13 +6362,13 @@
         <v>179</v>
       </c>
       <c r="D304" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E304" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>2712</v>
       </c>
@@ -6976,13 +6379,13 @@
         <v>282</v>
       </c>
       <c r="D305" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>2718</v>
       </c>
@@ -6993,13 +6396,13 @@
         <v>184</v>
       </c>
       <c r="D306" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E306" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>2719</v>
       </c>
@@ -7010,13 +6413,13 @@
         <v>283</v>
       </c>
       <c r="D307" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E307" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>2720</v>
       </c>
@@ -7027,10 +6430,10 @@
         <v>284</v>
       </c>
       <c r="E308" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>2722</v>
       </c>
@@ -7041,13 +6444,13 @@
         <v>234</v>
       </c>
       <c r="D309" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E309" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>2724</v>
       </c>
@@ -7058,13 +6461,13 @@
         <v>170</v>
       </c>
       <c r="D310" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E310" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>2733</v>
       </c>
@@ -7075,13 +6478,13 @@
         <v>170</v>
       </c>
       <c r="D311" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E311" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>2741</v>
       </c>
@@ -7092,13 +6495,13 @@
         <v>285</v>
       </c>
       <c r="D312" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E312" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>2748</v>
       </c>
@@ -7109,13 +6512,13 @@
         <v>286</v>
       </c>
       <c r="D313" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E313" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>2755</v>
       </c>
@@ -7126,13 +6529,13 @@
         <v>169</v>
       </c>
       <c r="D314" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E314" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>2756</v>
       </c>
@@ -7143,10 +6546,10 @@
         <v>287</v>
       </c>
       <c r="E315" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>2757</v>
       </c>
@@ -7157,13 +6560,13 @@
         <v>288</v>
       </c>
       <c r="D316" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E316" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>2758</v>
       </c>
@@ -7174,10 +6577,10 @@
         <v>289</v>
       </c>
       <c r="E317" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>2761</v>
       </c>
@@ -7188,13 +6591,13 @@
         <v>290</v>
       </c>
       <c r="D318" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E318" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>2767</v>
       </c>
@@ -7205,13 +6608,13 @@
         <v>291</v>
       </c>
       <c r="D319" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E319" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>2769</v>
       </c>
@@ -7222,13 +6625,13 @@
         <v>291</v>
       </c>
       <c r="D320" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E320" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>2772</v>
       </c>
@@ -7239,13 +6642,13 @@
         <v>291</v>
       </c>
       <c r="D321" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E321" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>2781</v>
       </c>
@@ -7256,13 +6659,13 @@
         <v>291</v>
       </c>
       <c r="D322" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E322" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>2783</v>
       </c>
@@ -7273,13 +6676,13 @@
         <v>292</v>
       </c>
       <c r="D323" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E323" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>2784</v>
       </c>
@@ -7290,13 +6693,13 @@
         <v>293</v>
       </c>
       <c r="D324" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E324" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>2787</v>
       </c>
@@ -7307,13 +6710,13 @@
         <v>294</v>
       </c>
       <c r="D325" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E325" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>2790</v>
       </c>
@@ -7324,13 +6727,13 @@
         <v>295</v>
       </c>
       <c r="D326" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E326" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>2791</v>
       </c>
@@ -7341,13 +6744,13 @@
         <v>174</v>
       </c>
       <c r="D327" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E327" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>2798</v>
       </c>
@@ -7358,13 +6761,13 @@
         <v>174</v>
       </c>
       <c r="D328" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E328" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>2805</v>
       </c>
@@ -7375,13 +6778,13 @@
         <v>265</v>
       </c>
       <c r="D329" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E329" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>2806</v>
       </c>
@@ -7392,13 +6795,13 @@
         <v>277</v>
       </c>
       <c r="D330" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E330" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>2813</v>
       </c>
@@ -7409,13 +6812,13 @@
         <v>277</v>
       </c>
       <c r="D331" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E331" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>2820</v>
       </c>
@@ -7426,13 +6829,13 @@
         <v>277</v>
       </c>
       <c r="D332" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E332" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>2827</v>
       </c>
@@ -7443,13 +6846,13 @@
         <v>277</v>
       </c>
       <c r="D333" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E333" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>2835</v>
       </c>
@@ -7460,13 +6863,13 @@
         <v>296</v>
       </c>
       <c r="D334" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E334" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>2836</v>
       </c>
@@ -7477,10 +6880,10 @@
         <v>297</v>
       </c>
       <c r="E335" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>2846</v>
       </c>
@@ -7491,10 +6894,10 @@
         <v>171</v>
       </c>
       <c r="E336" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>2848</v>
       </c>
@@ -7505,10 +6908,10 @@
         <v>171</v>
       </c>
       <c r="E337" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>2850</v>
       </c>
@@ -7519,10 +6922,10 @@
         <v>171</v>
       </c>
       <c r="E338" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>2852</v>
       </c>
@@ -7533,10 +6936,10 @@
         <v>298</v>
       </c>
       <c r="E339" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>2854</v>
       </c>
@@ -7547,10 +6950,10 @@
         <v>298</v>
       </c>
       <c r="E340" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>2856</v>
       </c>
@@ -7561,13 +6964,13 @@
         <v>184</v>
       </c>
       <c r="D341" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E341" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>2857</v>
       </c>
@@ -7578,13 +6981,13 @@
         <v>174</v>
       </c>
       <c r="D342" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E342" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>2874</v>
       </c>
@@ -7595,13 +6998,13 @@
         <v>299</v>
       </c>
       <c r="D343" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E343" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>2884</v>
       </c>
@@ -7612,13 +7015,13 @@
         <v>300</v>
       </c>
       <c r="D344" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E344" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>2885</v>
       </c>
@@ -7629,13 +7032,13 @@
         <v>295</v>
       </c>
       <c r="D345" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E345" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>2886</v>
       </c>
@@ -7646,13 +7049,13 @@
         <v>234</v>
       </c>
       <c r="D346" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E346" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>2887</v>
       </c>
@@ -7663,13 +7066,13 @@
         <v>175</v>
       </c>
       <c r="D347" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E347" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>2889</v>
       </c>
@@ -7680,328 +7083,328 @@
         <v>179</v>
       </c>
       <c r="D348" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E348" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17"/>
-    <hyperlink ref="C19" r:id="rId18"/>
-    <hyperlink ref="C20" r:id="rId19"/>
-    <hyperlink ref="C21" r:id="rId20"/>
-    <hyperlink ref="C22" r:id="rId21"/>
-    <hyperlink ref="C23" r:id="rId22"/>
-    <hyperlink ref="C24" r:id="rId23"/>
-    <hyperlink ref="C25" r:id="rId24"/>
-    <hyperlink ref="C26" r:id="rId25"/>
-    <hyperlink ref="C27" r:id="rId26"/>
-    <hyperlink ref="C28" r:id="rId27"/>
-    <hyperlink ref="C29" r:id="rId28"/>
-    <hyperlink ref="C30" r:id="rId29"/>
-    <hyperlink ref="C32" r:id="rId30"/>
-    <hyperlink ref="C33" r:id="rId31"/>
-    <hyperlink ref="C34" r:id="rId32"/>
-    <hyperlink ref="C35" r:id="rId33"/>
-    <hyperlink ref="C36" r:id="rId34"/>
-    <hyperlink ref="C37" r:id="rId35"/>
-    <hyperlink ref="C38" r:id="rId36"/>
-    <hyperlink ref="C39" r:id="rId37"/>
-    <hyperlink ref="C40" r:id="rId38"/>
-    <hyperlink ref="C41" r:id="rId39"/>
-    <hyperlink ref="C43" r:id="rId40"/>
-    <hyperlink ref="C44" r:id="rId41"/>
-    <hyperlink ref="C45" r:id="rId42"/>
-    <hyperlink ref="C46" r:id="rId43"/>
-    <hyperlink ref="C47" r:id="rId44"/>
-    <hyperlink ref="C48" r:id="rId45"/>
-    <hyperlink ref="C49" r:id="rId46"/>
-    <hyperlink ref="C50" r:id="rId47"/>
-    <hyperlink ref="C51" r:id="rId48"/>
-    <hyperlink ref="C52" r:id="rId49"/>
-    <hyperlink ref="C53" r:id="rId50"/>
-    <hyperlink ref="C54" r:id="rId51"/>
-    <hyperlink ref="C55" r:id="rId52"/>
-    <hyperlink ref="C56" r:id="rId53"/>
-    <hyperlink ref="C57" r:id="rId54"/>
-    <hyperlink ref="C58" r:id="rId55"/>
-    <hyperlink ref="C59" r:id="rId56"/>
-    <hyperlink ref="C60" r:id="rId57"/>
-    <hyperlink ref="C61" r:id="rId58"/>
-    <hyperlink ref="C62" r:id="rId59"/>
-    <hyperlink ref="C63" r:id="rId60"/>
-    <hyperlink ref="C65" r:id="rId61"/>
-    <hyperlink ref="C66" r:id="rId62"/>
-    <hyperlink ref="C67" r:id="rId63"/>
-    <hyperlink ref="C68" r:id="rId64"/>
-    <hyperlink ref="C69" r:id="rId65"/>
-    <hyperlink ref="C70" r:id="rId66"/>
-    <hyperlink ref="C71" r:id="rId67"/>
-    <hyperlink ref="C72" r:id="rId68"/>
-    <hyperlink ref="C73" r:id="rId69"/>
-    <hyperlink ref="C74" r:id="rId70"/>
-    <hyperlink ref="C75" r:id="rId71"/>
-    <hyperlink ref="C76" r:id="rId72"/>
-    <hyperlink ref="C77" r:id="rId73"/>
-    <hyperlink ref="C78" r:id="rId74"/>
-    <hyperlink ref="C79" r:id="rId75"/>
-    <hyperlink ref="C80" r:id="rId76"/>
-    <hyperlink ref="C81" r:id="rId77"/>
-    <hyperlink ref="C82" r:id="rId78"/>
-    <hyperlink ref="C83" r:id="rId79"/>
-    <hyperlink ref="C85" r:id="rId80"/>
-    <hyperlink ref="C87" r:id="rId81"/>
-    <hyperlink ref="C89" r:id="rId82"/>
-    <hyperlink ref="C91" r:id="rId83"/>
-    <hyperlink ref="C93" r:id="rId84"/>
-    <hyperlink ref="C95" r:id="rId85"/>
-    <hyperlink ref="C97" r:id="rId86"/>
-    <hyperlink ref="C98" r:id="rId87"/>
-    <hyperlink ref="C99" r:id="rId88" location="39;sexs"/>
-    <hyperlink ref="C101" r:id="rId89" location="39;sexs"/>
-    <hyperlink ref="C103" r:id="rId90" location="39;sexs"/>
-    <hyperlink ref="C105" r:id="rId91" location="39;sexs"/>
-    <hyperlink ref="C107" r:id="rId92" location="39;sexs"/>
-    <hyperlink ref="C109" r:id="rId93" location="39;sexs"/>
-    <hyperlink ref="C111" r:id="rId94" location="39;sexs"/>
-    <hyperlink ref="C113" r:id="rId95"/>
-    <hyperlink ref="C114" r:id="rId96"/>
-    <hyperlink ref="C115" r:id="rId97"/>
-    <hyperlink ref="C116" r:id="rId98"/>
-    <hyperlink ref="C117" r:id="rId99"/>
-    <hyperlink ref="C118" r:id="rId100"/>
-    <hyperlink ref="C119" r:id="rId101"/>
-    <hyperlink ref="C120" r:id="rId102"/>
-    <hyperlink ref="C121" r:id="rId103"/>
-    <hyperlink ref="C122" r:id="rId104"/>
-    <hyperlink ref="C123" r:id="rId105"/>
-    <hyperlink ref="C124" r:id="rId106"/>
-    <hyperlink ref="C125" r:id="rId107"/>
-    <hyperlink ref="C126" r:id="rId108"/>
-    <hyperlink ref="C127" r:id="rId109"/>
-    <hyperlink ref="C128" r:id="rId110"/>
-    <hyperlink ref="C129" r:id="rId111"/>
-    <hyperlink ref="C130" r:id="rId112"/>
-    <hyperlink ref="C131" r:id="rId113"/>
-    <hyperlink ref="C132" r:id="rId114"/>
-    <hyperlink ref="C133" r:id="rId115"/>
-    <hyperlink ref="C134" r:id="rId116"/>
-    <hyperlink ref="C135" r:id="rId117"/>
-    <hyperlink ref="C136" r:id="rId118"/>
-    <hyperlink ref="C137" r:id="rId119"/>
-    <hyperlink ref="C138" r:id="rId120"/>
-    <hyperlink ref="C139" r:id="rId121"/>
-    <hyperlink ref="C140" r:id="rId122"/>
-    <hyperlink ref="C141" r:id="rId123"/>
-    <hyperlink ref="C142" r:id="rId124"/>
-    <hyperlink ref="C143" r:id="rId125"/>
-    <hyperlink ref="C144" r:id="rId126"/>
-    <hyperlink ref="C145" r:id="rId127"/>
-    <hyperlink ref="C146" r:id="rId128"/>
-    <hyperlink ref="C147" r:id="rId129"/>
-    <hyperlink ref="C148" r:id="rId130"/>
-    <hyperlink ref="C149" r:id="rId131"/>
-    <hyperlink ref="C150" r:id="rId132"/>
-    <hyperlink ref="C151" r:id="rId133"/>
-    <hyperlink ref="C152" r:id="rId134"/>
-    <hyperlink ref="C153" r:id="rId135"/>
-    <hyperlink ref="C154" r:id="rId136"/>
-    <hyperlink ref="C155" r:id="rId137"/>
-    <hyperlink ref="C156" r:id="rId138"/>
-    <hyperlink ref="C157" r:id="rId139"/>
-    <hyperlink ref="C158" r:id="rId140"/>
-    <hyperlink ref="C159" r:id="rId141"/>
-    <hyperlink ref="C160" r:id="rId142"/>
-    <hyperlink ref="C161" r:id="rId143"/>
-    <hyperlink ref="C162" r:id="rId144"/>
-    <hyperlink ref="C163" r:id="rId145"/>
-    <hyperlink ref="C164" r:id="rId146"/>
-    <hyperlink ref="C165" r:id="rId147"/>
-    <hyperlink ref="C166" r:id="rId148"/>
-    <hyperlink ref="C167" r:id="rId149"/>
-    <hyperlink ref="C168" r:id="rId150"/>
-    <hyperlink ref="C169" r:id="rId151"/>
-    <hyperlink ref="C170" r:id="rId152"/>
-    <hyperlink ref="C171" r:id="rId153"/>
-    <hyperlink ref="C172" r:id="rId154"/>
-    <hyperlink ref="C173" r:id="rId155"/>
-    <hyperlink ref="C174" r:id="rId156"/>
-    <hyperlink ref="C175" r:id="rId157"/>
-    <hyperlink ref="C176" r:id="rId158"/>
-    <hyperlink ref="C177" r:id="rId159"/>
-    <hyperlink ref="C178" r:id="rId160"/>
-    <hyperlink ref="C179" r:id="rId161" location="39;SLOVES"/>
-    <hyperlink ref="C181" r:id="rId162" location="39;SLOVES"/>
-    <hyperlink ref="C183" r:id="rId163"/>
-    <hyperlink ref="C184" r:id="rId164"/>
-    <hyperlink ref="C185" r:id="rId165"/>
-    <hyperlink ref="C186" r:id="rId166"/>
-    <hyperlink ref="C187" r:id="rId167"/>
-    <hyperlink ref="C188" r:id="rId168"/>
-    <hyperlink ref="C189" r:id="rId169"/>
-    <hyperlink ref="C190" r:id="rId170"/>
-    <hyperlink ref="C191" r:id="rId171"/>
-    <hyperlink ref="C192" r:id="rId172"/>
-    <hyperlink ref="C193" r:id="rId173"/>
-    <hyperlink ref="C194" r:id="rId174"/>
-    <hyperlink ref="C195" r:id="rId175"/>
-    <hyperlink ref="C196" r:id="rId176"/>
-    <hyperlink ref="C197" r:id="rId177"/>
-    <hyperlink ref="C198" r:id="rId178"/>
-    <hyperlink ref="C199" r:id="rId179"/>
-    <hyperlink ref="C200" r:id="rId180"/>
-    <hyperlink ref="C201" r:id="rId181"/>
-    <hyperlink ref="C202" r:id="rId182"/>
-    <hyperlink ref="C203" r:id="rId183"/>
-    <hyperlink ref="C204" r:id="rId184"/>
-    <hyperlink ref="C205" r:id="rId185"/>
-    <hyperlink ref="C206" r:id="rId186"/>
-    <hyperlink ref="C207" r:id="rId187"/>
-    <hyperlink ref="C208" r:id="rId188"/>
-    <hyperlink ref="C209" r:id="rId189"/>
-    <hyperlink ref="C211" r:id="rId190"/>
-    <hyperlink ref="C213" r:id="rId191" location="39;sexs"/>
-    <hyperlink ref="C215" r:id="rId192" location="39;sexs"/>
-    <hyperlink ref="C217" r:id="rId193" location="39;sexs"/>
-    <hyperlink ref="C219" r:id="rId194" location="39;sexs"/>
-    <hyperlink ref="C221" r:id="rId195" location="39;sexs"/>
-    <hyperlink ref="C223" r:id="rId196"/>
-    <hyperlink ref="C224" r:id="rId197"/>
-    <hyperlink ref="C225" r:id="rId198"/>
-    <hyperlink ref="C226" r:id="rId199"/>
-    <hyperlink ref="C227" r:id="rId200"/>
-    <hyperlink ref="C228" r:id="rId201"/>
-    <hyperlink ref="C229" r:id="rId202"/>
-    <hyperlink ref="C230" r:id="rId203"/>
-    <hyperlink ref="C231" r:id="rId204"/>
-    <hyperlink ref="C232" r:id="rId205"/>
-    <hyperlink ref="C233" r:id="rId206"/>
-    <hyperlink ref="C234" r:id="rId207"/>
-    <hyperlink ref="C235" r:id="rId208"/>
-    <hyperlink ref="C236" r:id="rId209"/>
-    <hyperlink ref="C237" r:id="rId210"/>
-    <hyperlink ref="C238" r:id="rId211"/>
-    <hyperlink ref="C239" r:id="rId212"/>
-    <hyperlink ref="C240" r:id="rId213"/>
-    <hyperlink ref="C241" r:id="rId214"/>
-    <hyperlink ref="C242" r:id="rId215"/>
-    <hyperlink ref="C243" r:id="rId216"/>
-    <hyperlink ref="C244" r:id="rId217"/>
-    <hyperlink ref="C245" r:id="rId218"/>
-    <hyperlink ref="C246" r:id="rId219"/>
-    <hyperlink ref="C247" r:id="rId220"/>
-    <hyperlink ref="C248" r:id="rId221"/>
-    <hyperlink ref="C249" r:id="rId222"/>
-    <hyperlink ref="C250" r:id="rId223"/>
-    <hyperlink ref="C251" r:id="rId224"/>
-    <hyperlink ref="C252" r:id="rId225"/>
-    <hyperlink ref="C253" r:id="rId226"/>
-    <hyperlink ref="C254" r:id="rId227"/>
-    <hyperlink ref="C255" r:id="rId228"/>
-    <hyperlink ref="C256" r:id="rId229"/>
-    <hyperlink ref="C257" r:id="rId230"/>
-    <hyperlink ref="C258" r:id="rId231"/>
-    <hyperlink ref="C259" r:id="rId232"/>
-    <hyperlink ref="C260" r:id="rId233"/>
-    <hyperlink ref="C261" r:id="rId234"/>
-    <hyperlink ref="C262" r:id="rId235"/>
-    <hyperlink ref="C263" r:id="rId236"/>
-    <hyperlink ref="C264" r:id="rId237" location="39;sexs"/>
-    <hyperlink ref="C266" r:id="rId238" location="39;sexs"/>
-    <hyperlink ref="C268" r:id="rId239" location="39;sexs"/>
-    <hyperlink ref="C270" r:id="rId240" location="39;sexs"/>
-    <hyperlink ref="C272" r:id="rId241"/>
-    <hyperlink ref="C273" r:id="rId242"/>
-    <hyperlink ref="C274" r:id="rId243"/>
-    <hyperlink ref="C275" r:id="rId244"/>
-    <hyperlink ref="C276" r:id="rId245"/>
-    <hyperlink ref="C277" r:id="rId246"/>
-    <hyperlink ref="C278" r:id="rId247"/>
-    <hyperlink ref="C279" r:id="rId248"/>
-    <hyperlink ref="C280" r:id="rId249"/>
-    <hyperlink ref="C281" r:id="rId250"/>
-    <hyperlink ref="C282" r:id="rId251"/>
-    <hyperlink ref="C283" r:id="rId252"/>
-    <hyperlink ref="C284" r:id="rId253"/>
-    <hyperlink ref="C285" r:id="rId254"/>
-    <hyperlink ref="C286" r:id="rId255"/>
-    <hyperlink ref="C287" r:id="rId256"/>
-    <hyperlink ref="C288" r:id="rId257"/>
-    <hyperlink ref="C289" r:id="rId258"/>
-    <hyperlink ref="C290" r:id="rId259"/>
-    <hyperlink ref="C291" r:id="rId260"/>
-    <hyperlink ref="C292" r:id="rId261"/>
-    <hyperlink ref="C293" r:id="rId262"/>
-    <hyperlink ref="C294" r:id="rId263"/>
-    <hyperlink ref="C295" r:id="rId264"/>
-    <hyperlink ref="C296" r:id="rId265"/>
-    <hyperlink ref="C297" r:id="rId266"/>
-    <hyperlink ref="C298" r:id="rId267"/>
-    <hyperlink ref="C299" r:id="rId268"/>
-    <hyperlink ref="C300" r:id="rId269"/>
-    <hyperlink ref="C301" r:id="rId270"/>
-    <hyperlink ref="C302" r:id="rId271"/>
-    <hyperlink ref="C303" r:id="rId272"/>
-    <hyperlink ref="C304" r:id="rId273"/>
-    <hyperlink ref="C305" r:id="rId274"/>
-    <hyperlink ref="C306" r:id="rId275"/>
-    <hyperlink ref="C307" r:id="rId276"/>
-    <hyperlink ref="C309" r:id="rId277"/>
-    <hyperlink ref="C310" r:id="rId278"/>
-    <hyperlink ref="C311" r:id="rId279"/>
-    <hyperlink ref="C312" r:id="rId280"/>
-    <hyperlink ref="C313" r:id="rId281"/>
-    <hyperlink ref="C314" r:id="rId282"/>
-    <hyperlink ref="C315" r:id="rId283"/>
-    <hyperlink ref="C316" r:id="rId284"/>
-    <hyperlink ref="C318" r:id="rId285"/>
-    <hyperlink ref="C319" r:id="rId286"/>
-    <hyperlink ref="C320" r:id="rId287"/>
-    <hyperlink ref="C321" r:id="rId288"/>
-    <hyperlink ref="C322" r:id="rId289"/>
-    <hyperlink ref="C323" r:id="rId290"/>
-    <hyperlink ref="C324" r:id="rId291"/>
-    <hyperlink ref="C325" r:id="rId292"/>
-    <hyperlink ref="C326" r:id="rId293"/>
-    <hyperlink ref="C327" r:id="rId294"/>
-    <hyperlink ref="C328" r:id="rId295"/>
-    <hyperlink ref="C329" r:id="rId296"/>
-    <hyperlink ref="C330" r:id="rId297"/>
-    <hyperlink ref="C331" r:id="rId298"/>
-    <hyperlink ref="C332" r:id="rId299"/>
-    <hyperlink ref="C333" r:id="rId300"/>
-    <hyperlink ref="C334" r:id="rId301"/>
-    <hyperlink ref="C336" r:id="rId302"/>
-    <hyperlink ref="C337" r:id="rId303"/>
-    <hyperlink ref="C338" r:id="rId304"/>
-    <hyperlink ref="C339" r:id="rId305"/>
-    <hyperlink ref="C340" r:id="rId306"/>
-    <hyperlink ref="C341" r:id="rId307"/>
-    <hyperlink ref="C342" r:id="rId308"/>
-    <hyperlink ref="C343" r:id="rId309"/>
-    <hyperlink ref="C344" r:id="rId310"/>
-    <hyperlink ref="C345" r:id="rId311"/>
-    <hyperlink ref="C346" r:id="rId312"/>
-    <hyperlink ref="C347" r:id="rId313"/>
-    <hyperlink ref="C348" r:id="rId314"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C45" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C46" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C47" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C48" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C52" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C55" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C56" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C57" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C58" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C59" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C60" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C61" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C62" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C63" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C65" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C66" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C67" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C68" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C69" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C70" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C71" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C72" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C73" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C74" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C75" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C76" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C77" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C78" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C79" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C80" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C81" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C82" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C83" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C85" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C87" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C89" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C91" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C93" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C95" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C97" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C98" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C99" r:id="rId88" location="39;sexs" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C101" r:id="rId89" location="39;sexs" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C103" r:id="rId90" location="39;sexs" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C105" r:id="rId91" location="39;sexs" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C107" r:id="rId92" location="39;sexs" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C109" r:id="rId93" location="39;sexs" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C111" r:id="rId94" location="39;sexs" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C113" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C114" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C115" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C116" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C117" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C118" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C119" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C120" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C121" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C122" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C123" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C124" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C125" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C126" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C127" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C128" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C129" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C130" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C131" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C132" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C133" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C134" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C135" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C136" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C137" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C138" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="C139" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="C140" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="C141" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="C142" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="C143" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="C144" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="C145" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C146" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="C147" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="C148" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C149" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="C150" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="C151" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="C152" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="C153" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C154" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="C155" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C156" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="C157" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="C158" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C159" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="C160" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="C161" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C162" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="C163" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C164" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="C165" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C166" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="C167" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="C168" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="C169" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C170" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="C171" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="C172" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="C173" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="C174" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="C175" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C176" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="C177" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C178" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="C179" r:id="rId161" location="39;SLOVES" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C181" r:id="rId162" location="39;SLOVES" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="C183" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C184" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="C185" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C186" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="C187" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C188" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="C189" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="C190" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="C191" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="C192" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="C193" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="C194" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="C195" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C196" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="C197" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="C198" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="C199" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C200" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="C201" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="C202" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="C203" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C204" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="C205" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C206" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="C207" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C208" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="C209" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C211" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="C213" r:id="rId191" location="39;sexs" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C215" r:id="rId192" location="39;sexs" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="C217" r:id="rId193" location="39;sexs" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C219" r:id="rId194" location="39;sexs" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="C221" r:id="rId195" location="39;sexs" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C223" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="C224" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="C225" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="C226" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C227" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C228" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="C229" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="C230" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C231" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="C232" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="C233" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="C234" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="C235" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C236" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="C237" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="C238" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="C239" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="C240" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="C241" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="C242" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C243" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="C244" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="C245" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="C246" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C247" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="C248" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="C249" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="C250" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="C251" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="C252" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="C253" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="C254" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="C255" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="C256" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="C257" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="C258" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="C259" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="C260" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="C261" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="C262" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C263" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="C264" r:id="rId237" location="39;sexs" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="C266" r:id="rId238" location="39;sexs" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="C268" r:id="rId239" location="39;sexs" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="C270" r:id="rId240" location="39;sexs" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C272" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="C273" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="C274" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C275" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="C276" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="C277" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="C278" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="C279" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="C280" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="C281" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="C282" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C283" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="C284" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="C285" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="C286" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="C287" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="C288" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="C289" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="C290" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="C291" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="C292" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="C293" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="C294" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="C295" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="C296" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="C297" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="C298" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="C299" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="C300" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="C301" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="C302" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="C303" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="C304" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="C305" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="C306" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="C307" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="C309" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="C310" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="C311" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="C312" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="C313" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="C314" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="C315" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="C316" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="C318" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="C319" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="C320" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="C321" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="C322" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="C323" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="C324" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="C325" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="C326" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="C327" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="C328" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="C329" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="C330" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="C331" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="C332" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="C333" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="C334" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="C336" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="C337" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="C338" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="C339" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="C340" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="C341" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="C342" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="C343" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="C344" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="C345" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="C346" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="C347" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="C348" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
